--- a/ZINFOODS/DADOS/Análise de Vendas por Valor (1)(Recuperado Automaticamente).xlsx
+++ b/ZINFOODS/DADOS/Análise de Vendas por Valor (1)(Recuperado Automaticamente).xlsx
@@ -5,23 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael.M  S.I T.I\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael.M  S.I T.I\CiencasDeDados\ZINFOODS\DADOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0999F61-07E1-49FD-AEC2-F6F19E0A1C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E457DB89-A0AD-424B-A61B-9D728058AE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Análise de Vendas por Valor" sheetId="1" r:id="rId1"/>
-    <sheet name="Folha1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="34" r:id="rId3"/>
-    <pivotCache cacheId="148" r:id="rId4"/>
+    <pivotCache cacheId="7" r:id="rId2"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -35,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="56">
   <si>
     <t>Rótulos de Linha</t>
   </si>
@@ -80,9 +77,6 @@
   </si>
   <si>
     <t>COMPANHIA ZAFFARI - RS</t>
-  </si>
-  <si>
-    <t>47</t>
   </si>
   <si>
     <t>56 - BISCOITO TRÊS QUEIJOS 25G ZIN PAO - CX 6 KG [1333039]</t>
@@ -750,50 +744,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Verificar Célula" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -807,1130 +758,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Rafael.M  S.I T.I" refreshedDate="45239.402704282409" backgroundQuery="1" createdVersion="6" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{5B0C67E1-78B6-47E4-BAAA-3E63FF387144}">
-  <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="13">
-    <cacheField name="[Vendas].[Data].[Data]" caption="Data" numFmtId="0" hierarchy="179" level="1">
-      <sharedItems count="216">
-        <s v="[Vendas].[Data].&amp;[2023-01-02T00:00:00]" c="02/01/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-01-03T00:00:00]" c="03/01/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-01-04T00:00:00]" c="04/01/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-01-05T00:00:00]" c="05/01/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-01-06T00:00:00]" c="06/01/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-01-09T00:00:00]" c="09/01/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-01-10T00:00:00]" c="10/01/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-01-11T00:00:00]" c="11/01/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-01-12T00:00:00]" c="12/01/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-01-13T00:00:00]" c="13/01/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-01-16T00:00:00]" c="16/01/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-01-17T00:00:00]" c="17/01/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-01-18T00:00:00]" c="18/01/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-01-19T00:00:00]" c="19/01/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-01-20T00:00:00]" c="20/01/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-01-23T00:00:00]" c="23/01/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-01-24T00:00:00]" c="24/01/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-01-25T00:00:00]" c="25/01/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-01-26T00:00:00]" c="26/01/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-01-27T00:00:00]" c="27/01/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-01-30T00:00:00]" c="30/01/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-01-31T00:00:00]" c="31/01/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-02-01T00:00:00]" c="01/02/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-02-02T00:00:00]" c="02/02/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-02-03T00:00:00]" c="03/02/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-02-06T00:00:00]" c="06/02/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-02-07T00:00:00]" c="07/02/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-02-08T00:00:00]" c="08/02/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-02-09T00:00:00]" c="09/02/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-02-10T00:00:00]" c="10/02/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-02-13T00:00:00]" c="13/02/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-02-14T00:00:00]" c="14/02/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-02-15T00:00:00]" c="15/02/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-02-16T00:00:00]" c="16/02/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-02-17T00:00:00]" c="17/02/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-02-20T00:00:00]" c="20/02/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-02-21T00:00:00]" c="21/02/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-02-22T00:00:00]" c="22/02/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-02-23T00:00:00]" c="23/02/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-02-24T00:00:00]" c="24/02/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-02-27T00:00:00]" c="27/02/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-02-28T00:00:00]" c="28/02/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-03-01T00:00:00]" c="01/03/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-03-02T00:00:00]" c="02/03/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-03-03T00:00:00]" c="03/03/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-03-06T00:00:00]" c="06/03/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-03-07T00:00:00]" c="07/03/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-03-08T00:00:00]" c="08/03/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-03-09T00:00:00]" c="09/03/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-03-10T00:00:00]" c="10/03/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-03-13T00:00:00]" c="13/03/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-03-14T00:00:00]" c="14/03/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-03-15T00:00:00]" c="15/03/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-03-16T00:00:00]" c="16/03/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-03-17T00:00:00]" c="17/03/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-03-20T00:00:00]" c="20/03/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-03-21T00:00:00]" c="21/03/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-03-22T00:00:00]" c="22/03/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-03-23T00:00:00]" c="23/03/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-03-24T00:00:00]" c="24/03/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-03-27T00:00:00]" c="27/03/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-03-28T00:00:00]" c="28/03/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-03-29T00:00:00]" c="29/03/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-03-30T00:00:00]" c="30/03/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-03-31T00:00:00]" c="31/03/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-04-03T00:00:00]" c="03/04/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-04-04T00:00:00]" c="04/04/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-04-05T00:00:00]" c="05/04/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-04-06T00:00:00]" c="06/04/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-04-10T00:00:00]" c="10/04/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-04-11T00:00:00]" c="11/04/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-04-12T00:00:00]" c="12/04/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-04-13T00:00:00]" c="13/04/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-04-14T00:00:00]" c="14/04/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-04-17T00:00:00]" c="17/04/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-04-18T00:00:00]" c="18/04/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-04-19T00:00:00]" c="19/04/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-04-20T00:00:00]" c="20/04/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-04-24T00:00:00]" c="24/04/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-04-25T00:00:00]" c="25/04/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-04-26T00:00:00]" c="26/04/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-04-27T00:00:00]" c="27/04/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-04-28T00:00:00]" c="28/04/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-04-29T00:00:00]" c="29/04/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-05-02T00:00:00]" c="02/05/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-05-03T00:00:00]" c="03/05/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-05-04T00:00:00]" c="04/05/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-05-05T00:00:00]" c="05/05/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-05-08T00:00:00]" c="08/05/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-05-09T00:00:00]" c="09/05/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-05-10T00:00:00]" c="10/05/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-05-11T00:00:00]" c="11/05/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-05-12T00:00:00]" c="12/05/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-05-15T00:00:00]" c="15/05/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-05-16T00:00:00]" c="16/05/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-05-17T00:00:00]" c="17/05/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-05-18T00:00:00]" c="18/05/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-05-19T00:00:00]" c="19/05/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-05-22T00:00:00]" c="22/05/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-05-23T00:00:00]" c="23/05/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-05-24T00:00:00]" c="24/05/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-05-25T00:00:00]" c="25/05/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-05-26T00:00:00]" c="26/05/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-05-29T00:00:00]" c="29/05/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-05-30T00:00:00]" c="30/05/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-05-31T00:00:00]" c="31/05/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-06-01T00:00:00]" c="01/06/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-06-02T00:00:00]" c="02/06/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-06-05T00:00:00]" c="05/06/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-06-06T00:00:00]" c="06/06/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-06-07T00:00:00]" c="07/06/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-06-09T00:00:00]" c="09/06/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-06-12T00:00:00]" c="12/06/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-06-13T00:00:00]" c="13/06/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-06-14T00:00:00]" c="14/06/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-06-15T00:00:00]" c="15/06/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-06-16T00:00:00]" c="16/06/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-06-19T00:00:00]" c="19/06/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-06-20T00:00:00]" c="20/06/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-06-21T00:00:00]" c="21/06/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-06-22T00:00:00]" c="22/06/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-06-23T00:00:00]" c="23/06/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-06-26T00:00:00]" c="26/06/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-06-27T00:00:00]" c="27/06/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-06-28T00:00:00]" c="28/06/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-06-29T00:00:00]" c="29/06/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-06-30T00:00:00]" c="30/06/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-07-03T00:00:00]" c="03/07/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-07-04T00:00:00]" c="04/07/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-07-05T00:00:00]" c="05/07/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-07-06T00:00:00]" c="06/07/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-07-07T00:00:00]" c="07/07/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-07-10T00:00:00]" c="10/07/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-07-11T00:00:00]" c="11/07/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-07-12T00:00:00]" c="12/07/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-07-13T00:00:00]" c="13/07/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-07-14T00:00:00]" c="14/07/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-07-17T00:00:00]" c="17/07/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-07-18T00:00:00]" c="18/07/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-07-19T00:00:00]" c="19/07/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-07-20T00:00:00]" c="20/07/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-07-21T00:00:00]" c="21/07/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-07-24T00:00:00]" c="24/07/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-07-25T00:00:00]" c="25/07/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-07-26T00:00:00]" c="26/07/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-07-27T00:00:00]" c="27/07/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-07-28T00:00:00]" c="28/07/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-07-31T00:00:00]" c="31/07/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-08-01T00:00:00]" c="01/08/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-08-02T00:00:00]" c="02/08/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-08-03T00:00:00]" c="03/08/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-08-04T00:00:00]" c="04/08/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-08-07T00:00:00]" c="07/08/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-08-08T00:00:00]" c="08/08/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-08-09T00:00:00]" c="09/08/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-08-10T00:00:00]" c="10/08/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-08-11T00:00:00]" c="11/08/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-08-14T00:00:00]" c="14/08/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-08-15T00:00:00]" c="15/08/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-08-16T00:00:00]" c="16/08/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-08-17T00:00:00]" c="17/08/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-08-18T00:00:00]" c="18/08/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-08-21T00:00:00]" c="21/08/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-08-22T00:00:00]" c="22/08/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-08-23T00:00:00]" c="23/08/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-08-24T00:00:00]" c="24/08/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-08-25T00:00:00]" c="25/08/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-08-28T00:00:00]" c="28/08/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-08-29T00:00:00]" c="29/08/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-08-30T00:00:00]" c="30/08/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-08-31T00:00:00]" c="31/08/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-09-01T00:00:00]" c="01/09/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-09-04T00:00:00]" c="04/09/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-09-05T00:00:00]" c="05/09/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-09-06T00:00:00]" c="06/09/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-09-08T00:00:00]" c="08/09/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-09-11T00:00:00]" c="11/09/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-09-12T00:00:00]" c="12/09/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-09-13T00:00:00]" c="13/09/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-09-14T00:00:00]" c="14/09/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-09-15T00:00:00]" c="15/09/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-09-18T00:00:00]" c="18/09/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-09-19T00:00:00]" c="19/09/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-09-21T00:00:00]" c="21/09/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-09-22T00:00:00]" c="22/09/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-09-25T00:00:00]" c="25/09/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-09-26T00:00:00]" c="26/09/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-09-27T00:00:00]" c="27/09/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-09-28T00:00:00]" c="28/09/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-09-29T00:00:00]" c="29/09/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-10-02T00:00:00]" c="02/10/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-10-03T00:00:00]" c="03/10/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-10-04T00:00:00]" c="04/10/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-10-05T00:00:00]" c="05/10/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-10-06T00:00:00]" c="06/10/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-10-09T00:00:00]" c="09/10/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-10-10T00:00:00]" c="10/10/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-10-11T00:00:00]" c="11/10/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-10-13T00:00:00]" c="13/10/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-10-16T00:00:00]" c="16/10/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-10-17T00:00:00]" c="17/10/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-10-18T00:00:00]" c="18/10/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-10-19T00:00:00]" c="19/10/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-10-20T00:00:00]" c="20/10/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-10-23T00:00:00]" c="23/10/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-10-24T00:00:00]" c="24/10/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-10-25T00:00:00]" c="25/10/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-10-26T00:00:00]" c="26/10/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-10-27T00:00:00]" c="27/10/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-10-30T00:00:00]" c="30/10/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-10-31T00:00:00]" c="31/10/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-11-01T00:00:00]" u="1" c="01/11/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-11-03T00:00:00]" u="1" c="03/11/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-11-06T00:00:00]" u="1" c="06/11/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-11-07T00:00:00]" u="1" c="07/11/2023"/>
-        <s v="[Vendas].[Data].&amp;[2023-11-08T00:00:00]" u="1" c="08/11/2023"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Grupo de Clientes].[Grupo Empresarial de Clientes].[Grupo Empresarial de Clientes]" caption="Grupo Empresarial de Clientes" numFmtId="0" hierarchy="66" level="1">
-      <sharedItems count="2">
-        <s v="[Grupo de Clientes].[Grupo Empresarial de Clientes].&amp;[COMPANHIA ZAFFARI]" c="COMPANHIA ZAFFARI"/>
-        <s v="[Grupo de Clientes].[Grupo Empresarial de Clientes].&amp;[COMERCIAL ZAFFARI]" u="1" c="COMERCIAL ZAFFARI"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Vendas].[Ano/Mês(Ordem)].[Ano/Mês(Ordem)]" caption="Ano/Mês(Ordem)" numFmtId="0" hierarchy="167" level="1">
-      <sharedItems count="11">
-        <s v="[Vendas].[Ano/Mês(Ordem)].&amp;[202301]" c="202301"/>
-        <s v="[Vendas].[Ano/Mês(Ordem)].&amp;[202302]" c="202302"/>
-        <s v="[Vendas].[Ano/Mês(Ordem)].&amp;[202303]" c="202303"/>
-        <s v="[Vendas].[Ano/Mês(Ordem)].&amp;[202304]" c="202304"/>
-        <s v="[Vendas].[Ano/Mês(Ordem)].&amp;[202305]" c="202305"/>
-        <s v="[Vendas].[Ano/Mês(Ordem)].&amp;[202306]" c="202306"/>
-        <s v="[Vendas].[Ano/Mês(Ordem)].&amp;[202307]" c="202307"/>
-        <s v="[Vendas].[Ano/Mês(Ordem)].&amp;[202308]" c="202308"/>
-        <s v="[Vendas].[Ano/Mês(Ordem)].&amp;[202309]" c="202309"/>
-        <s v="[Vendas].[Ano/Mês(Ordem)].&amp;[202310]" c="202310"/>
-        <s v="[Vendas].[Ano/Mês(Ordem)].&amp;[202311]" c="202311"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Vendas].[Mês].[Mês]" caption="Mês" numFmtId="0" hierarchy="182" level="1">
-      <sharedItems count="10">
-        <s v="[Vendas].[Mês].&amp;[Janeiro]" c="Janeiro"/>
-        <s v="[Vendas].[Mês].&amp;[Fevereiro]" c="Fevereiro"/>
-        <s v="[Vendas].[Mês].&amp;[Março]" c="Março"/>
-        <s v="[Vendas].[Mês].&amp;[Abril]" c="Abril"/>
-        <s v="[Vendas].[Mês].&amp;[Maio]" c="Maio"/>
-        <s v="[Vendas].[Mês].&amp;[Junho]" c="Junho"/>
-        <s v="[Vendas].[Mês].&amp;[Julho]" c="Julho"/>
-        <s v="[Vendas].[Mês].&amp;[Agosto]" c="Agosto"/>
-        <s v="[Vendas].[Mês].&amp;[Setembro]" c="Setembro"/>
-        <s v="[Vendas].[Mês].&amp;[Outubro]" c="Outubro"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Vendas].[Ano].[Ano]" caption="Ano" numFmtId="0" hierarchy="166" level="1">
-      <sharedItems count="1">
-        <s v="[Vendas].[Ano].&amp;[2023]" c="2023"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Measures].[Valor Total de Venda]" caption="Valor Total de Venda" numFmtId="0" hierarchy="246" level="32767"/>
-    <cacheField name="[Divisões de Produtos].[Divisão de Produtos].[Divisão de Produtos]" caption="Divisão de Produtos" numFmtId="0" hierarchy="55" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Divisões de Produtos].[Divisão de Produtos - Código].[Divisão de Produtos - Código]" caption="Divisão de Produtos - Código" numFmtId="0" hierarchy="56" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Divisões de Produtos].[Divisão de Produtos Superior].[Divisão de Produtos Superior]" caption="Divisão de Produtos Superior" numFmtId="0" hierarchy="57" level="1">
-      <sharedItems count="1">
-        <s v="[Divisões de Produtos].[Divisão de Produtos Superior].&amp;[INSTITUCIONAL]" c="INSTITUCIONAL"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Tabela de Venda].[Tabela de Venda].[Tabela de Venda]" caption="Tabela de Venda" numFmtId="0" hierarchy="152" level="1">
-      <sharedItems count="1">
-        <s v="[Tabela de Venda].[Tabela de Venda].&amp;[COMPANHIA ZAFFARI - RS]" c="COMPANHIA ZAFFARI - RS"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Categoria do Produto].[Categoria de Produtos].[Categoria de Produtos]" caption="Categoria de Produtos" numFmtId="0" hierarchy="18" level="1">
-      <sharedItems count="1">
-        <s v="[Categoria do Produto].[Categoria de Produtos].&amp;[2 - INSTITUCIONAL]" c="2 - INSTITUCIONAL"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Divisões de Produtos].[Divisão de Produtos Superior - Código].[Divisão de Produtos Superior - Código]" caption="Divisão de Produtos Superior - Código" numFmtId="0" hierarchy="58" level="1">
-      <sharedItems count="1">
-        <s v="[Divisões de Produtos].[Divisão de Produtos Superior - Código].&amp;[47]" c="47"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Clientes].[Clientes].[Clientes]" caption="Clientes" numFmtId="0" hierarchy="42" level="1">
-      <sharedItems count="38">
-        <s v="[Clientes].[Clientes].&amp;[CIA ZAFFARI COM E IND - LOJA 02]" c="CIA ZAFFARI COM E IND - LOJA 02"/>
-        <s v="[Clientes].[Clientes].&amp;[CIA ZAFFARI COM E IND - LOJA 03]" c="CIA ZAFFARI COM E IND - LOJA 03"/>
-        <s v="[Clientes].[Clientes].&amp;[CIA ZAFFARI COM E IND - LOJA 04]" c="CIA ZAFFARI COM E IND - LOJA 04"/>
-        <s v="[Clientes].[Clientes].&amp;[CIA ZAFFARI COM E IND - LOJA 05]" c="CIA ZAFFARI COM E IND - LOJA 05"/>
-        <s v="[Clientes].[Clientes].&amp;[CIA ZAFFARI COM E IND - LOJA 06]" c="CIA ZAFFARI COM E IND - LOJA 06"/>
-        <s v="[Clientes].[Clientes].&amp;[CIA ZAFFARI COM E IND - LOJA 07]" c="CIA ZAFFARI COM E IND - LOJA 07"/>
-        <s v="[Clientes].[Clientes].&amp;[CIA ZAFFARI COM E IND - LOJA 08]" c="CIA ZAFFARI COM E IND - LOJA 08"/>
-        <s v="[Clientes].[Clientes].&amp;[CIA ZAFFARI COM E IND - LOJA 09]" c="CIA ZAFFARI COM E IND - LOJA 09"/>
-        <s v="[Clientes].[Clientes].&amp;[CIA ZAFFARI COM E IND - LOJA 10]" c="CIA ZAFFARI COM E IND - LOJA 10"/>
-        <s v="[Clientes].[Clientes].&amp;[CIA ZAFFARI COM E IND - LOJA 11]" c="CIA ZAFFARI COM E IND - LOJA 11"/>
-        <s v="[Clientes].[Clientes].&amp;[CIA ZAFFARI COM E IND - LOJA 12]" c="CIA ZAFFARI COM E IND - LOJA 12"/>
-        <s v="[Clientes].[Clientes].&amp;[CIA ZAFFARI COM E IND - LOJA 14]" c="CIA ZAFFARI COM E IND - LOJA 14"/>
-        <s v="[Clientes].[Clientes].&amp;[CIA ZAFFARI COM E IND - LOJA 15]" c="CIA ZAFFARI COM E IND - LOJA 15"/>
-        <s v="[Clientes].[Clientes].&amp;[CIA ZAFFARI COM E IND - LOJA 16]" c="CIA ZAFFARI COM E IND - LOJA 16"/>
-        <s v="[Clientes].[Clientes].&amp;[CIA ZAFFARI COM E IND - LOJA 17]" c="CIA ZAFFARI COM E IND - LOJA 17"/>
-        <s v="[Clientes].[Clientes].&amp;[CIA ZAFFARI COM E IND - LOJA 18]" c="CIA ZAFFARI COM E IND - LOJA 18"/>
-        <s v="[Clientes].[Clientes].&amp;[CIA ZAFFARI COM E IND - LOJA 19]" c="CIA ZAFFARI COM E IND - LOJA 19"/>
-        <s v="[Clientes].[Clientes].&amp;[CIA ZAFFARI COM E IND - LOJA 20]" c="CIA ZAFFARI COM E IND - LOJA 20"/>
-        <s v="[Clientes].[Clientes].&amp;[CIA ZAFFARI COM E IND - LOJA 203 CESTO]" c="CIA ZAFFARI COM E IND - LOJA 203 CESTO"/>
-        <s v="[Clientes].[Clientes].&amp;[CIA ZAFFARI COM E IND - LOJA 21]" c="CIA ZAFFARI COM E IND - LOJA 21"/>
-        <s v="[Clientes].[Clientes].&amp;[CIA ZAFFARI COM E IND - LOJA 22]" c="CIA ZAFFARI COM E IND - LOJA 22"/>
-        <s v="[Clientes].[Clientes].&amp;[CIA ZAFFARI COM E IND - LOJA 24]" c="CIA ZAFFARI COM E IND - LOJA 24"/>
-        <s v="[Clientes].[Clientes].&amp;[CIA ZAFFARI COM E IND - LOJA 25]" c="CIA ZAFFARI COM E IND - LOJA 25"/>
-        <s v="[Clientes].[Clientes].&amp;[CIA ZAFFARI COM E IND - LOJA 26]" c="CIA ZAFFARI COM E IND - LOJA 26"/>
-        <s v="[Clientes].[Clientes].&amp;[CIA ZAFFARI COM E IND - LOJA 27]" c="CIA ZAFFARI COM E IND - LOJA 27"/>
-        <s v="[Clientes].[Clientes].&amp;[CIA ZAFFARI COM E IND - LOJA 28]" c="CIA ZAFFARI COM E IND - LOJA 28"/>
-        <s v="[Clientes].[Clientes].&amp;[CIA ZAFFARI COM E IND - LOJA 29]" c="CIA ZAFFARI COM E IND - LOJA 29"/>
-        <s v="[Clientes].[Clientes].&amp;[CIA ZAFFARI COM E IND - LOJA 30]" c="CIA ZAFFARI COM E IND - LOJA 30"/>
-        <s v="[Clientes].[Clientes].&amp;[CIA ZAFFARI COM E IND - LOJA 31]" c="CIA ZAFFARI COM E IND - LOJA 31"/>
-        <s v="[Clientes].[Clientes].&amp;[CIA ZAFFARI COM E IND - LOJA 32]" c="CIA ZAFFARI COM E IND - LOJA 32"/>
-        <s v="[Clientes].[Clientes].&amp;[CIA ZAFFARI COM E IND - LOJA 33]" c="CIA ZAFFARI COM E IND - LOJA 33"/>
-        <s v="[Clientes].[Clientes].&amp;[CIA ZAFFARI COM E IND - LOJA 34]" c="CIA ZAFFARI COM E IND - LOJA 34"/>
-        <s v="[Clientes].[Clientes].&amp;[CIA ZAFFARI COM E IND - LOJA 35]" c="CIA ZAFFARI COM E IND - LOJA 35"/>
-        <s v="[Clientes].[Clientes].&amp;[CIA ZAFFARI COM E IND - LOJA 36]" c="CIA ZAFFARI COM E IND - LOJA 36"/>
-        <s v="[Clientes].[Clientes].&amp;[CIA ZAFFARI COM E IND - LOJA 37]" c="CIA ZAFFARI COM E IND - LOJA 37"/>
-        <s v="[Clientes].[Clientes].&amp;[CIA ZAFFARI COM E IND - LOJA 38]" c="CIA ZAFFARI COM E IND - LOJA 38"/>
-        <s v="[Clientes].[Clientes].&amp;[CIA ZAFFARI COM E IND - LOJA 39]" c="CIA ZAFFARI COM E IND - LOJA 39"/>
-        <s v="[Clientes].[Clientes].&amp;[CIA ZAFFARI COM E IND - LOJA 42]" c="CIA ZAFFARI COM E IND - LOJA 42"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <cacheHierarchies count="280">
-    <cacheHierarchy uniqueName="[Agentes de Cobrança].[Agente de Cobrança]" caption="Agente de Cobrança" attribute="1" defaultMemberUniqueName="[Agentes de Cobrança].[Agente de Cobrança].[All]" allUniqueName="[Agentes de Cobrança].[Agente de Cobrança].[All]" dimensionUniqueName="[Agentes de Cobrança]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Agentes de Cobrança].[Agente de Cobrança - Código]" caption="Agente de Cobrança - Código" attribute="1" defaultMemberUniqueName="[Agentes de Cobrança].[Agente de Cobrança - Código].[All]" allUniqueName="[Agentes de Cobrança].[Agente de Cobrança - Código].[All]" dimensionUniqueName="[Agentes de Cobrança]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Agentes de Cobrança].[CHAVE]" caption="CHAVE" attribute="1" defaultMemberUniqueName="[Agentes de Cobrança].[CHAVE].[All]" allUniqueName="[Agentes de Cobrança].[CHAVE].[All]" dimensionUniqueName="[Agentes de Cobrança]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Agentes de TeleVendas].[Agente de Televenda]" caption="Agente de Televenda" attribute="1" defaultMemberUniqueName="[Agentes de TeleVendas].[Agente de Televenda].[All]" allUniqueName="[Agentes de TeleVendas].[Agente de Televenda].[All]" dimensionUniqueName="[Agentes de TeleVendas]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Agentes de TeleVendas].[Agente de Televenda - Situação]" caption="Agente de Televenda - Situação" attribute="1" defaultMemberUniqueName="[Agentes de TeleVendas].[Agente de Televenda - Situação].[All]" allUniqueName="[Agentes de TeleVendas].[Agente de Televenda - Situação].[All]" dimensionUniqueName="[Agentes de TeleVendas]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Agentes de TeleVendas].[Chave TeleVenda]" caption="Chave TeleVenda" attribute="1" defaultMemberUniqueName="[Agentes de TeleVendas].[Chave TeleVenda].[All]" allUniqueName="[Agentes de TeleVendas].[Chave TeleVenda].[All]" dimensionUniqueName="[Agentes de TeleVendas]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Agentes de TeleVendas].[Código]" caption="Código" attribute="1" defaultMemberUniqueName="[Agentes de TeleVendas].[Código].[All]" allUniqueName="[Agentes de TeleVendas].[Código].[All]" dimensionUniqueName="[Agentes de TeleVendas]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Agentes de Venda x Clientes].[Chave Agente de Venda]" caption="Chave Agente de Venda" attribute="1" defaultMemberUniqueName="[Agentes de Venda x Clientes].[Chave Agente de Venda].[All]" allUniqueName="[Agentes de Venda x Clientes].[Chave Agente de Venda].[All]" dimensionUniqueName="[Agentes de Venda x Clientes]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Agentes de Venda x Clientes].[Chave Cliente]" caption="Chave Cliente" attribute="1" defaultMemberUniqueName="[Agentes de Venda x Clientes].[Chave Cliente].[All]" allUniqueName="[Agentes de Venda x Clientes].[Chave Cliente].[All]" dimensionUniqueName="[Agentes de Venda x Clientes]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Agentes de Venda x Clientes].[Código - Agente de Venda]" caption="Código - Agente de Venda" attribute="1" defaultMemberUniqueName="[Agentes de Venda x Clientes].[Código - Agente de Venda].[All]" allUniqueName="[Agentes de Venda x Clientes].[Código - Agente de Venda].[All]" dimensionUniqueName="[Agentes de Venda x Clientes]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Agentes de Venda x Clientes].[Código - Cliente]" caption="Código - Cliente" attribute="1" defaultMemberUniqueName="[Agentes de Venda x Clientes].[Código - Cliente].[All]" allUniqueName="[Agentes de Venda x Clientes].[Código - Cliente].[All]" dimensionUniqueName="[Agentes de Venda x Clientes]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Agentes de Venda x Clientes].[Código - Empresa]" caption="Código - Empresa" attribute="1" defaultMemberUniqueName="[Agentes de Venda x Clientes].[Código - Empresa].[All]" allUniqueName="[Agentes de Venda x Clientes].[Código - Empresa].[All]" dimensionUniqueName="[Agentes de Venda x Clientes]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Agentes de Vendas].[Agente de Venda]" caption="Agente de Venda" attribute="1" defaultMemberUniqueName="[Agentes de Vendas].[Agente de Venda].[All]" allUniqueName="[Agentes de Vendas].[Agente de Venda].[All]" dimensionUniqueName="[Agentes de Vendas]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Agentes de Vendas].[Agente de Venda - Código]" caption="Agente de Venda - Código" attribute="1" defaultMemberUniqueName="[Agentes de Vendas].[Agente de Venda - Código].[All]" allUniqueName="[Agentes de Vendas].[Agente de Venda - Código].[All]" dimensionUniqueName="[Agentes de Vendas]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Agentes de Vendas].[Agente de Venda - Situação]" caption="Agente de Venda - Situação" attribute="1" defaultMemberUniqueName="[Agentes de Vendas].[Agente de Venda - Situação].[All]" allUniqueName="[Agentes de Vendas].[Agente de Venda - Situação].[All]" dimensionUniqueName="[Agentes de Vendas]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Agentes de Vendas].[CHAVE]" caption="CHAVE" attribute="1" defaultMemberUniqueName="[Agentes de Vendas].[CHAVE].[All]" allUniqueName="[Agentes de Vendas].[CHAVE].[All]" dimensionUniqueName="[Agentes de Vendas]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Canais de Vendas].[Canal de Venda]" caption="Canal de Venda" attribute="1" defaultMemberUniqueName="[Canais de Vendas].[Canal de Venda].[All]" allUniqueName="[Canais de Vendas].[Canal de Venda].[All]" dimensionUniqueName="[Canais de Vendas]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Canais de Vendas].[Canal de Venda - Código]" caption="Canal de Venda - Código" attribute="1" defaultMemberUniqueName="[Canais de Vendas].[Canal de Venda - Código].[All]" allUniqueName="[Canais de Vendas].[Canal de Venda - Código].[All]" dimensionUniqueName="[Canais de Vendas]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Categoria do Produto].[Categoria de Produtos]" caption="Categoria de Produtos" attribute="1" defaultMemberUniqueName="[Categoria do Produto].[Categoria de Produtos].[All]" allUniqueName="[Categoria do Produto].[Categoria de Produtos].[All]" dimensionUniqueName="[Categoria do Produto]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="10"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Categoria do Produto].[Chave Categoria do Produto]" caption="Chave Categoria do Produto" attribute="1" defaultMemberUniqueName="[Categoria do Produto].[Chave Categoria do Produto].[All]" allUniqueName="[Categoria do Produto].[Chave Categoria do Produto].[All]" dimensionUniqueName="[Categoria do Produto]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Categoria do Produto].[Chave Pai Categoria]" caption="Chave Pai Categoria" attribute="1" defaultMemberUniqueName="[Categoria do Produto].[Chave Pai Categoria].[All]" allUniqueName="[Categoria do Produto].[Chave Pai Categoria].[All]" dimensionUniqueName="[Categoria do Produto]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Categoria do Produto].[Classificação Categoria]" caption="Classificação Categoria" attribute="1" defaultMemberUniqueName="[Categoria do Produto].[Classificação Categoria].[All]" allUniqueName="[Categoria do Produto].[Classificação Categoria].[All]" dimensionUniqueName="[Categoria do Produto]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Categoria do Produto].[Código Categoria]" caption="Código Categoria" attribute="1" defaultMemberUniqueName="[Categoria do Produto].[Código Categoria].[All]" allUniqueName="[Categoria do Produto].[Código Categoria].[All]" dimensionUniqueName="[Categoria do Produto]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Categoria do Produto].[Status Categoria]" caption="Status Categoria" attribute="1" defaultMemberUniqueName="[Categoria do Produto].[Status Categoria].[All]" allUniqueName="[Categoria do Produto].[Status Categoria].[All]" dimensionUniqueName="[Categoria do Produto]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cidades].[Cidade]" caption="Cidade" attribute="1" defaultMemberUniqueName="[Cidades].[Cidade].[All]" allUniqueName="[Cidades].[Cidade].[All]" dimensionUniqueName="[Cidades]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cidades].[Código]" caption="Código" attribute="1" defaultMemberUniqueName="[Cidades].[Código].[All]" allUniqueName="[Cidades].[Código].[All]" dimensionUniqueName="[Cidades]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cidades].[Código País]" caption="Código País" attribute="1" defaultMemberUniqueName="[Cidades].[Código País].[All]" allUniqueName="[Cidades].[Código País].[All]" dimensionUniqueName="[Cidades]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cidades].[Estado]" caption="Estado" attribute="1" defaultMemberUniqueName="[Cidades].[Estado].[All]" allUniqueName="[Cidades].[Estado].[All]" dimensionUniqueName="[Cidades]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cidades].[Localização]" caption="Localização" attribute="1" defaultMemberUniqueName="[Cidades].[Localização].[All]" allUniqueName="[Cidades].[Localização].[All]" dimensionUniqueName="[Cidades]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cidades].[País]" caption="País" attribute="1" defaultMemberUniqueName="[Cidades].[País].[All]" allUniqueName="[Cidades].[País].[All]" dimensionUniqueName="[Cidades]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cidades].[Quantidade de Habitantes]" caption="Quantidade de Habitantes" attribute="1" defaultMemberUniqueName="[Cidades].[Quantidade de Habitantes].[All]" allUniqueName="[Cidades].[Quantidade de Habitantes].[All]" dimensionUniqueName="[Cidades]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cidades].[UF]" caption="UF" attribute="1" defaultMemberUniqueName="[Cidades].[UF].[All]" allUniqueName="[Cidades].[UF].[All]" dimensionUniqueName="[Cidades]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Classificação Comercial].[Classificação Comercial]" caption="Classificação Comercial" attribute="1" defaultMemberUniqueName="[Classificação Comercial].[Classificação Comercial].[All]" allUniqueName="[Classificação Comercial].[Classificação Comercial].[All]" dimensionUniqueName="[Classificação Comercial]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Classificação Comercial].[Código]" caption="Código" attribute="1" defaultMemberUniqueName="[Classificação Comercial].[Código].[All]" allUniqueName="[Classificação Comercial].[Código].[All]" dimensionUniqueName="[Classificação Comercial]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Clientes].[CFC_CLACOMCOD]" caption="CFC_CLACOMCOD" attribute="1" defaultMemberUniqueName="[Clientes].[CFC_CLACOMCOD].[All]" allUniqueName="[Clientes].[CFC_CLACOMCOD].[All]" dimensionUniqueName="[Clientes]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Clientes].[Chave Cidade]" caption="Chave Cidade" attribute="1" defaultMemberUniqueName="[Clientes].[Chave Cidade].[All]" allUniqueName="[Clientes].[Chave Cidade].[All]" dimensionUniqueName="[Clientes]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Clientes].[Chave Cliente]" caption="Chave Cliente" attribute="1" defaultMemberUniqueName="[Clientes].[Chave Cliente].[All]" allUniqueName="[Clientes].[Chave Cliente].[All]" dimensionUniqueName="[Clientes]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Clientes].[Chave Grupo Empresarial]" caption="Chave Grupo Empresarial" attribute="1" defaultMemberUniqueName="[Clientes].[Chave Grupo Empresarial].[All]" allUniqueName="[Clientes].[Chave Grupo Empresarial].[All]" dimensionUniqueName="[Clientes]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Clientes].[Chave Região]" caption="Chave Região" attribute="1" defaultMemberUniqueName="[Clientes].[Chave Região].[All]" allUniqueName="[Clientes].[Chave Região].[All]" dimensionUniqueName="[Clientes]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Clientes].[Chave Segmento]" caption="Chave Segmento" attribute="1" defaultMemberUniqueName="[Clientes].[Chave Segmento].[All]" allUniqueName="[Clientes].[Chave Segmento].[All]" dimensionUniqueName="[Clientes]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Clientes].[Cliente - Situação]" caption="Cliente - Situação" attribute="1" defaultMemberUniqueName="[Clientes].[Cliente - Situação].[All]" allUniqueName="[Clientes].[Cliente - Situação].[All]" dimensionUniqueName="[Clientes]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Clientes].[Cliente Completo]" caption="Cliente Completo" attribute="1" defaultMemberUniqueName="[Clientes].[Cliente Completo].[All]" allUniqueName="[Clientes].[Cliente Completo].[All]" dimensionUniqueName="[Clientes]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Clientes].[Clientes]" caption="Clientes" attribute="1" defaultMemberUniqueName="[Clientes].[Clientes].[All]" allUniqueName="[Clientes].[Clientes].[All]" dimensionUniqueName="[Clientes]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="12"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Clientes].[Código Cliente]" caption="Código Cliente" attribute="1" defaultMemberUniqueName="[Clientes].[Código Cliente].[All]" allUniqueName="[Clientes].[Código Cliente].[All]" dimensionUniqueName="[Clientes]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Clientes].[Código Empresa]" caption="Código Empresa" attribute="1" defaultMemberUniqueName="[Clientes].[Código Empresa].[All]" allUniqueName="[Clientes].[Código Empresa].[All]" dimensionUniqueName="[Clientes]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Clientes].[CPF ou CNPJ]" caption="CPF ou CNPJ" attribute="1" defaultMemberUniqueName="[Clientes].[CPF ou CNPJ].[All]" allUniqueName="[Clientes].[CPF ou CNPJ].[All]" dimensionUniqueName="[Clientes]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Clientes].[Localização]" caption="Localização" attribute="1" defaultMemberUniqueName="[Clientes].[Localização].[All]" allUniqueName="[Clientes].[Localização].[All]" dimensionUniqueName="[Clientes]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Clientes].[Qtd. Clientes]" caption="Qtd. Clientes" attribute="1" defaultMemberUniqueName="[Clientes].[Qtd. Clientes].[All]" allUniqueName="[Clientes].[Qtd. Clientes].[All]" dimensionUniqueName="[Clientes]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Condição de Pagamento].[Chave]" caption="Chave" attribute="1" defaultMemberUniqueName="[Condição de Pagamento].[Chave].[All]" allUniqueName="[Condição de Pagamento].[Chave].[All]" dimensionUniqueName="[Condição de Pagamento]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Condição de Pagamento].[Condição de Pagamento]" caption="Condição de Pagamento" attribute="1" defaultMemberUniqueName="[Condição de Pagamento].[Condição de Pagamento].[All]" allUniqueName="[Condição de Pagamento].[Condição de Pagamento].[All]" dimensionUniqueName="[Condição de Pagamento]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[DateTableTemplate_1c5cf662-8a40-40c2-896a-55d3c9a1d239].[Hierarquia de Datas]" caption="Hierarquia de Datas" defaultMemberUniqueName="[DateTableTemplate_1c5cf662-8a40-40c2-896a-55d3c9a1d239].[Hierarquia de Datas].[All]" allUniqueName="[DateTableTemplate_1c5cf662-8a40-40c2-896a-55d3c9a1d239].[Hierarquia de Datas].[All]" dimensionUniqueName="[DateTableTemplate_1c5cf662-8a40-40c2-896a-55d3c9a1d239]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Divisões de Produtos].[Chave Divisão]" caption="Chave Divisão" attribute="1" defaultMemberUniqueName="[Divisões de Produtos].[Chave Divisão].[All]" allUniqueName="[Divisões de Produtos].[Chave Divisão].[All]" dimensionUniqueName="[Divisões de Produtos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Divisões de Produtos].[CHAVE_AGECOM]" caption="CHAVE_AGECOM" attribute="1" defaultMemberUniqueName="[Divisões de Produtos].[CHAVE_AGECOM].[All]" allUniqueName="[Divisões de Produtos].[CHAVE_AGECOM].[All]" dimensionUniqueName="[Divisões de Produtos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Divisões de Produtos].[CHAVE_PAIDIV]" caption="CHAVE_PAIDIV" attribute="1" defaultMemberUniqueName="[Divisões de Produtos].[CHAVE_PAIDIV].[All]" allUniqueName="[Divisões de Produtos].[CHAVE_PAIDIV].[All]" dimensionUniqueName="[Divisões de Produtos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Divisões de Produtos].[Classificação]" caption="Classificação" attribute="1" defaultMemberUniqueName="[Divisões de Produtos].[Classificação].[All]" allUniqueName="[Divisões de Produtos].[Classificação].[All]" dimensionUniqueName="[Divisões de Produtos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Divisões de Produtos].[Divisão de Produtos]" caption="Divisão de Produtos" attribute="1" defaultMemberUniqueName="[Divisões de Produtos].[Divisão de Produtos].[All]" allUniqueName="[Divisões de Produtos].[Divisão de Produtos].[All]" dimensionUniqueName="[Divisões de Produtos]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="6"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Divisões de Produtos].[Divisão de Produtos - Código]" caption="Divisão de Produtos - Código" attribute="1" defaultMemberUniqueName="[Divisões de Produtos].[Divisão de Produtos - Código].[All]" allUniqueName="[Divisões de Produtos].[Divisão de Produtos - Código].[All]" dimensionUniqueName="[Divisões de Produtos]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="7"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Divisões de Produtos].[Divisão de Produtos Superior]" caption="Divisão de Produtos Superior" attribute="1" defaultMemberUniqueName="[Divisões de Produtos].[Divisão de Produtos Superior].[All]" allUniqueName="[Divisões de Produtos].[Divisão de Produtos Superior].[All]" dimensionUniqueName="[Divisões de Produtos]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="8"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Divisões de Produtos].[Divisão de Produtos Superior - Código]" caption="Divisão de Produtos Superior - Código" attribute="1" defaultMemberUniqueName="[Divisões de Produtos].[Divisão de Produtos Superior - Código].[All]" allUniqueName="[Divisões de Produtos].[Divisão de Produtos Superior - Código].[All]" dimensionUniqueName="[Divisões de Produtos]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="11"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Divisões de Produtos].[Nível]" caption="Nível" attribute="1" defaultMemberUniqueName="[Divisões de Produtos].[Nível].[All]" allUniqueName="[Divisões de Produtos].[Nível].[All]" dimensionUniqueName="[Divisões de Produtos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Empresas].[Código]" caption="Código" attribute="1" defaultMemberUniqueName="[Empresas].[Código].[All]" allUniqueName="[Empresas].[Código].[All]" dimensionUniqueName="[Empresas]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Empresas].[Empresa]" caption="Empresa" attribute="1" defaultMemberUniqueName="[Empresas].[Empresa].[All]" allUniqueName="[Empresas].[Empresa].[All]" dimensionUniqueName="[Empresas]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Fornecedores].[Fornecedor]" caption="Fornecedor" attribute="1" defaultMemberUniqueName="[Fornecedores].[Fornecedor].[All]" allUniqueName="[Fornecedores].[Fornecedor].[All]" dimensionUniqueName="[Fornecedores]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Fornecedores].[Fornecedor - Cidade]" caption="Fornecedor - Cidade" attribute="1" defaultMemberUniqueName="[Fornecedores].[Fornecedor - Cidade].[All]" allUniqueName="[Fornecedores].[Fornecedor - Cidade].[All]" dimensionUniqueName="[Fornecedores]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Fornecedores].[Fornecedor - Código]" caption="Fornecedor - Código" attribute="1" defaultMemberUniqueName="[Fornecedores].[Fornecedor - Código].[All]" allUniqueName="[Fornecedores].[Fornecedor - Código].[All]" dimensionUniqueName="[Fornecedores]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Grupo de Clientes].[Código]" caption="Código" attribute="1" defaultMemberUniqueName="[Grupo de Clientes].[Código].[All]" allUniqueName="[Grupo de Clientes].[Código].[All]" dimensionUniqueName="[Grupo de Clientes]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Grupo de Clientes].[Grupo Empresarial de Clientes]" caption="Grupo Empresarial de Clientes" attribute="1" defaultMemberUniqueName="[Grupo de Clientes].[Grupo Empresarial de Clientes].[All]" allUniqueName="[Grupo de Clientes].[Grupo Empresarial de Clientes].[All]" dimensionUniqueName="[Grupo de Clientes]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Linhas de Produtos].[Chave Agente de Compras]" caption="Chave Agente de Compras" attribute="1" defaultMemberUniqueName="[Linhas de Produtos].[Chave Agente de Compras].[All]" allUniqueName="[Linhas de Produtos].[Chave Agente de Compras].[All]" dimensionUniqueName="[Linhas de Produtos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Linhas de Produtos].[Chave Linha]" caption="Chave Linha" attribute="1" defaultMemberUniqueName="[Linhas de Produtos].[Chave Linha].[All]" allUniqueName="[Linhas de Produtos].[Chave Linha].[All]" dimensionUniqueName="[Linhas de Produtos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Linhas de Produtos].[Chave Linha de Produto Superior]" caption="Chave Linha de Produto Superior" attribute="1" defaultMemberUniqueName="[Linhas de Produtos].[Chave Linha de Produto Superior].[All]" allUniqueName="[Linhas de Produtos].[Chave Linha de Produto Superior].[All]" dimensionUniqueName="[Linhas de Produtos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Linhas de Produtos].[Classificação]" caption="Classificação" attribute="1" defaultMemberUniqueName="[Linhas de Produtos].[Classificação].[All]" allUniqueName="[Linhas de Produtos].[Classificação].[All]" dimensionUniqueName="[Linhas de Produtos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Linhas de Produtos].[Linha de Produtos]" caption="Linha de Produtos" attribute="1" defaultMemberUniqueName="[Linhas de Produtos].[Linha de Produtos].[All]" allUniqueName="[Linhas de Produtos].[Linha de Produtos].[All]" dimensionUniqueName="[Linhas de Produtos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Linhas de Produtos].[Linha de Produtos - Código]" caption="Linha de Produtos - Código" attribute="1" defaultMemberUniqueName="[Linhas de Produtos].[Linha de Produtos - Código].[All]" allUniqueName="[Linhas de Produtos].[Linha de Produtos - Código].[All]" dimensionUniqueName="[Linhas de Produtos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Linhas de Produtos].[Linha de Produtos Superior]" caption="Linha de Produtos Superior" attribute="1" defaultMemberUniqueName="[Linhas de Produtos].[Linha de Produtos Superior].[All]" allUniqueName="[Linhas de Produtos].[Linha de Produtos Superior].[All]" dimensionUniqueName="[Linhas de Produtos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Linhas de Produtos].[Linha de Produtos Superior - Código]" caption="Linha de Produtos Superior - Código" attribute="1" defaultMemberUniqueName="[Linhas de Produtos].[Linha de Produtos Superior - Código].[All]" allUniqueName="[Linhas de Produtos].[Linha de Produtos Superior - Código].[All]" dimensionUniqueName="[Linhas de Produtos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Linhas de Produtos].[Nível]" caption="Nível" attribute="1" defaultMemberUniqueName="[Linhas de Produtos].[Nível].[All]" allUniqueName="[Linhas de Produtos].[Nível].[All]" dimensionUniqueName="[Linhas de Produtos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Marcas de Produtos].[Marca]" caption="Marca" attribute="1" defaultMemberUniqueName="[Marcas de Produtos].[Marca].[All]" allUniqueName="[Marcas de Produtos].[Marca].[All]" dimensionUniqueName="[Marcas de Produtos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Marcas de Produtos].[Marca - Código]" caption="Marca - Código" attribute="1" defaultMemberUniqueName="[Marcas de Produtos].[Marca - Código].[All]" allUniqueName="[Marcas de Produtos].[Marca - Código].[All]" dimensionUniqueName="[Marcas de Produtos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Movimentos].[% MLL Acumulada]" caption="% MLL Acumulada" attribute="1" defaultMemberUniqueName="[Movimentos].[% MLL Acumulada].[All]" allUniqueName="[Movimentos].[% MLL Acumulada].[All]" dimensionUniqueName="[Movimentos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Movimentos].[Chave Tabela de Venda]" caption="Chave Tabela de Venda" attribute="1" defaultMemberUniqueName="[Movimentos].[Chave Tabela de Venda].[All]" allUniqueName="[Movimentos].[Chave Tabela de Venda].[All]" dimensionUniqueName="[Movimentos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Movimentos].[CHAVE_OPE]" caption="CHAVE_OPE" attribute="1" defaultMemberUniqueName="[Movimentos].[CHAVE_OPE].[All]" allUniqueName="[Movimentos].[CHAVE_OPE].[All]" dimensionUniqueName="[Movimentos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Movimentos].[CHAVE_PRODUTO]" caption="CHAVE_PRODUTO" attribute="1" defaultMemberUniqueName="[Movimentos].[CHAVE_PRODUTO].[All]" allUniqueName="[Movimentos].[CHAVE_PRODUTO].[All]" dimensionUniqueName="[Movimentos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Movimentos].[CHAVE_VENDA]" caption="CHAVE_VENDA" attribute="1" defaultMemberUniqueName="[Movimentos].[CHAVE_VENDA].[All]" allUniqueName="[Movimentos].[CHAVE_VENDA].[All]" dimensionUniqueName="[Movimentos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Movimentos].[Desconto Comercial]" caption="Desconto Comercial" attribute="1" defaultMemberUniqueName="[Movimentos].[Desconto Comercial].[All]" allUniqueName="[Movimentos].[Desconto Comercial].[All]" dimensionUniqueName="[Movimentos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Movimentos].[Desconto Comercial (Apresentação)]" caption="Desconto Comercial (Apresentação)" attribute="1" defaultMemberUniqueName="[Movimentos].[Desconto Comercial (Apresentação)].[All]" allUniqueName="[Movimentos].[Desconto Comercial (Apresentação)].[All]" dimensionUniqueName="[Movimentos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Movimentos].[Desconto Financeiro]" caption="Desconto Financeiro" attribute="1" defaultMemberUniqueName="[Movimentos].[Desconto Financeiro].[All]" allUniqueName="[Movimentos].[Desconto Financeiro].[All]" dimensionUniqueName="[Movimentos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Movimentos].[Desconto Promocional]" caption="Desconto Promocional" attribute="1" defaultMemberUniqueName="[Movimentos].[Desconto Promocional].[All]" allUniqueName="[Movimentos].[Desconto Promocional].[All]" dimensionUniqueName="[Movimentos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Movimentos].[Desconto Promocional (Apresentação)]" caption="Desconto Promocional (Apresentação)" attribute="1" defaultMemberUniqueName="[Movimentos].[Desconto Promocional (Apresentação)].[All]" allUniqueName="[Movimentos].[Desconto Promocional (Apresentação)].[All]" dimensionUniqueName="[Movimentos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Movimentos].[Descontos - Cofins]" caption="Descontos - Cofins" attribute="1" defaultMemberUniqueName="[Movimentos].[Descontos - Cofins].[All]" allUniqueName="[Movimentos].[Descontos - Cofins].[All]" dimensionUniqueName="[Movimentos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Movimentos].[Descontos - ICMS]" caption="Descontos - ICMS" attribute="1" defaultMemberUniqueName="[Movimentos].[Descontos - ICMS].[All]" allUniqueName="[Movimentos].[Descontos - ICMS].[All]" dimensionUniqueName="[Movimentos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Movimentos].[Descontos - PIS]" caption="Descontos - PIS" attribute="1" defaultMemberUniqueName="[Movimentos].[Descontos - PIS].[All]" allUniqueName="[Movimentos].[Descontos - PIS].[All]" dimensionUniqueName="[Movimentos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Movimentos].[Diferença Realizado x Tabela de Venda]" caption="Diferença Realizado x Tabela de Venda" attribute="1" defaultMemberUniqueName="[Movimentos].[Diferença Realizado x Tabela de Venda].[All]" allUniqueName="[Movimentos].[Diferença Realizado x Tabela de Venda].[All]" dimensionUniqueName="[Movimentos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Movimentos].[FPAG_MEDIA]" caption="FPAG_MEDIA" attribute="1" defaultMemberUniqueName="[Movimentos].[FPAG_MEDIA].[All]" allUniqueName="[Movimentos].[FPAG_MEDIA].[All]" dimensionUniqueName="[Movimentos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Movimentos].[Impostos/Outros - FCP]" caption="Impostos/Outros - FCP" attribute="1" defaultMemberUniqueName="[Movimentos].[Impostos/Outros - FCP].[All]" allUniqueName="[Movimentos].[Impostos/Outros - FCP].[All]" dimensionUniqueName="[Movimentos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Movimentos].[Impostos/Outros - Frete]" caption="Impostos/Outros - Frete" attribute="1" defaultMemberUniqueName="[Movimentos].[Impostos/Outros - Frete].[All]" allUniqueName="[Movimentos].[Impostos/Outros - Frete].[All]" dimensionUniqueName="[Movimentos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Movimentos].[Impostos/Outros - ICMS Adicional]" caption="Impostos/Outros - ICMS Adicional" attribute="1" defaultMemberUniqueName="[Movimentos].[Impostos/Outros - ICMS Adicional].[All]" allUniqueName="[Movimentos].[Impostos/Outros - ICMS Adicional].[All]" dimensionUniqueName="[Movimentos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Movimentos].[Impostos/Outros - ICMS Substituição]" caption="Impostos/Outros - ICMS Substituição" attribute="1" defaultMemberUniqueName="[Movimentos].[Impostos/Outros - ICMS Substituição].[All]" allUniqueName="[Movimentos].[Impostos/Outros - ICMS Substituição].[All]" dimensionUniqueName="[Movimentos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Movimentos].[Impostos/Outros - IPI]" caption="Impostos/Outros - IPI" attribute="1" defaultMemberUniqueName="[Movimentos].[Impostos/Outros - IPI].[All]" allUniqueName="[Movimentos].[Impostos/Outros - IPI].[All]" dimensionUniqueName="[Movimentos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Movimentos].[Impostos/Outros - Outras Despesas]" caption="Impostos/Outros - Outras Despesas" attribute="1" defaultMemberUniqueName="[Movimentos].[Impostos/Outros - Outras Despesas].[All]" allUniqueName="[Movimentos].[Impostos/Outros - Outras Despesas].[All]" dimensionUniqueName="[Movimentos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Movimentos].[Impostos/Outros - Seguro]" caption="Impostos/Outros - Seguro" attribute="1" defaultMemberUniqueName="[Movimentos].[Impostos/Outros - Seguro].[All]" allUniqueName="[Movimentos].[Impostos/Outros - Seguro].[All]" dimensionUniqueName="[Movimentos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Movimentos].[MOV_SEQ]" caption="MOV_SEQ" attribute="1" defaultMemberUniqueName="[Movimentos].[MOV_SEQ].[All]" allUniqueName="[Movimentos].[MOV_SEQ].[All]" dimensionUniqueName="[Movimentos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Movimentos].[MOV_TPMCOD]" caption="MOV_TPMCOD" attribute="1" defaultMemberUniqueName="[Movimentos].[MOV_TPMCOD].[All]" allUniqueName="[Movimentos].[MOV_TPMCOD].[All]" dimensionUniqueName="[Movimentos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Movimentos].[Outros Valores]" caption="Outros Valores" attribute="1" defaultMemberUniqueName="[Movimentos].[Outros Valores].[All]" allUniqueName="[Movimentos].[Outros Valores].[All]" dimensionUniqueName="[Movimentos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Movimentos].[Percentual MLL]" caption="Percentual MLL" attribute="1" defaultMemberUniqueName="[Movimentos].[Percentual MLL].[All]" allUniqueName="[Movimentos].[Percentual MLL].[All]" dimensionUniqueName="[Movimentos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Movimentos].[Quantidade]" caption="Quantidade" attribute="1" defaultMemberUniqueName="[Movimentos].[Quantidade].[All]" allUniqueName="[Movimentos].[Quantidade].[All]" dimensionUniqueName="[Movimentos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Movimentos].[Tabela de Venda - Valor Total]" caption="Tabela de Venda - Valor Total" attribute="1" defaultMemberUniqueName="[Movimentos].[Tabela de Venda - Valor Total].[All]" allUniqueName="[Movimentos].[Tabela de Venda - Valor Total].[All]" dimensionUniqueName="[Movimentos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Movimentos].[Tabela de Venda - Valor Unitário]" caption="Tabela de Venda - Valor Unitário" attribute="1" defaultMemberUniqueName="[Movimentos].[Tabela de Venda - Valor Unitário].[All]" allUniqueName="[Movimentos].[Tabela de Venda - Valor Unitário].[All]" dimensionUniqueName="[Movimentos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Movimentos].[Valor Bruto]" caption="Valor Bruto" attribute="1" defaultMemberUniqueName="[Movimentos].[Valor Bruto].[All]" allUniqueName="[Movimentos].[Valor Bruto].[All]" dimensionUniqueName="[Movimentos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Movimentos].[Valor de Venda]" caption="Valor de Venda" attribute="1" defaultMemberUniqueName="[Movimentos].[Valor de Venda].[All]" allUniqueName="[Movimentos].[Valor de Venda].[All]" dimensionUniqueName="[Movimentos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Movimentos].[Valor Líquido]" caption="Valor Líquido" attribute="1" defaultMemberUniqueName="[Movimentos].[Valor Líquido].[All]" allUniqueName="[Movimentos].[Valor Líquido].[All]" dimensionUniqueName="[Movimentos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Movimentos].[Valor Lucro]" caption="Valor Lucro" attribute="1" defaultMemberUniqueName="[Movimentos].[Valor Lucro].[All]" allUniqueName="[Movimentos].[Valor Lucro].[All]" dimensionUniqueName="[Movimentos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Movimentos].[VEN_APRAZO]" caption="VEN_APRAZO" attribute="1" defaultMemberUniqueName="[Movimentos].[VEN_APRAZO].[All]" allUniqueName="[Movimentos].[VEN_APRAZO].[All]" dimensionUniqueName="[Movimentos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Operações].[CHAVE]" caption="CHAVE" attribute="1" defaultMemberUniqueName="[Operações].[CHAVE].[All]" allUniqueName="[Operações].[CHAVE].[All]" dimensionUniqueName="[Operações]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Operações].[OPE_CTRLBRINDE]" caption="OPE_CTRLBRINDE" attribute="1" defaultMemberUniqueName="[Operações].[OPE_CTRLBRINDE].[All]" allUniqueName="[Operações].[OPE_CTRLBRINDE].[All]" dimensionUniqueName="[Operações]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Operações].[Operação]" caption="Operação" attribute="1" defaultMemberUniqueName="[Operações].[Operação].[All]" allUniqueName="[Operações].[Operação].[All]" dimensionUniqueName="[Operações]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Operações].[Operação - Código]" caption="Operação - Código" attribute="1" defaultMemberUniqueName="[Operações].[Operação - Código].[All]" allUniqueName="[Operações].[Operação - Código].[All]" dimensionUniqueName="[Operações]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Produtos].[Chave Categoria do Produto]" caption="Chave Categoria do Produto" attribute="1" defaultMemberUniqueName="[Produtos].[Chave Categoria do Produto].[All]" allUniqueName="[Produtos].[Chave Categoria do Produto].[All]" dimensionUniqueName="[Produtos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Produtos].[Chave Divisão]" caption="Chave Divisão" attribute="1" defaultMemberUniqueName="[Produtos].[Chave Divisão].[All]" allUniqueName="[Produtos].[Chave Divisão].[All]" dimensionUniqueName="[Produtos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Produtos].[Chave Linha]" caption="Chave Linha" attribute="1" defaultMemberUniqueName="[Produtos].[Chave Linha].[All]" allUniqueName="[Produtos].[Chave Linha].[All]" dimensionUniqueName="[Produtos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Produtos].[Chave Marca]" caption="Chave Marca" attribute="1" defaultMemberUniqueName="[Produtos].[Chave Marca].[All]" allUniqueName="[Produtos].[Chave Marca].[All]" dimensionUniqueName="[Produtos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Produtos].[Chave Produto]" caption="Chave Produto" attribute="1" defaultMemberUniqueName="[Produtos].[Chave Produto].[All]" allUniqueName="[Produtos].[Chave Produto].[All]" dimensionUniqueName="[Produtos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Produtos].[Chave Produto APR]" caption="Chave Produto APR" attribute="1" defaultMemberUniqueName="[Produtos].[Chave Produto APR].[All]" allUniqueName="[Produtos].[Chave Produto APR].[All]" dimensionUniqueName="[Produtos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Produtos].[Descrição]" caption="Descrição" attribute="1" defaultMemberUniqueName="[Produtos].[Descrição].[All]" allUniqueName="[Produtos].[Descrição].[All]" dimensionUniqueName="[Produtos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Produtos].[Descrição Completa]" caption="Descrição Completa" attribute="1" defaultMemberUniqueName="[Produtos].[Descrição Completa].[All]" allUniqueName="[Produtos].[Descrição Completa].[All]" dimensionUniqueName="[Produtos]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Produtos].[Produto/Serviço]" caption="Produto/Serviço" attribute="1" defaultMemberUniqueName="[Produtos].[Produto/Serviço].[All]" allUniqueName="[Produtos].[Produto/Serviço].[All]" dimensionUniqueName="[Produtos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Produtos].[Produto/Serviço - Código]" caption="Produto/Serviço - Código" attribute="1" defaultMemberUniqueName="[Produtos].[Produto/Serviço - Código].[All]" allUniqueName="[Produtos].[Produto/Serviço - Código].[All]" dimensionUniqueName="[Produtos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Produtos].[Referência]" caption="Referência" attribute="1" defaultMemberUniqueName="[Produtos].[Referência].[All]" allUniqueName="[Produtos].[Referência].[All]" dimensionUniqueName="[Produtos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Produtos].[Sequência Catálogo]" caption="Sequência Catálogo" attribute="1" defaultMemberUniqueName="[Produtos].[Sequência Catálogo].[All]" allUniqueName="[Produtos].[Sequência Catálogo].[All]" dimensionUniqueName="[Produtos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Produtos].[Status Produto]" caption="Status Produto" attribute="1" defaultMemberUniqueName="[Produtos].[Status Produto].[All]" allUniqueName="[Produtos].[Status Produto].[All]" dimensionUniqueName="[Produtos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Produtos].[Tipo do Produto]" caption="Tipo do Produto" attribute="1" defaultMemberUniqueName="[Produtos].[Tipo do Produto].[All]" allUniqueName="[Produtos].[Tipo do Produto].[All]" dimensionUniqueName="[Produtos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Produtos].[Unidade de Medida]" caption="Unidade de Medida" attribute="1" defaultMemberUniqueName="[Produtos].[Unidade de Medida].[All]" allUniqueName="[Produtos].[Unidade de Medida].[All]" dimensionUniqueName="[Produtos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Regiões].[CHAVE]" caption="CHAVE" attribute="1" defaultMemberUniqueName="[Regiões].[CHAVE].[All]" allUniqueName="[Regiões].[CHAVE].[All]" dimensionUniqueName="[Regiões]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Regiões].[Região]" caption="Região" attribute="1" defaultMemberUniqueName="[Regiões].[Região].[All]" allUniqueName="[Regiões].[Região].[All]" dimensionUniqueName="[Regiões]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Regiões].[Região - Código]" caption="Região - Código" attribute="1" defaultMemberUniqueName="[Regiões].[Região - Código].[All]" allUniqueName="[Regiões].[Região - Código].[All]" dimensionUniqueName="[Regiões]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Segmentos dos Clientes].[CHAVE]" caption="CHAVE" attribute="1" defaultMemberUniqueName="[Segmentos dos Clientes].[CHAVE].[All]" allUniqueName="[Segmentos dos Clientes].[CHAVE].[All]" dimensionUniqueName="[Segmentos dos Clientes]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Segmentos dos Clientes].[Classificação]" caption="Classificação" attribute="1" defaultMemberUniqueName="[Segmentos dos Clientes].[Classificação].[All]" allUniqueName="[Segmentos dos Clientes].[Classificação].[All]" dimensionUniqueName="[Segmentos dos Clientes]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Segmentos dos Clientes].[Nível]" caption="Nível" attribute="1" defaultMemberUniqueName="[Segmentos dos Clientes].[Nível].[All]" allUniqueName="[Segmentos dos Clientes].[Nível].[All]" dimensionUniqueName="[Segmentos dos Clientes]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Segmentos dos Clientes].[Segmento]" caption="Segmento" attribute="1" defaultMemberUniqueName="[Segmentos dos Clientes].[Segmento].[All]" allUniqueName="[Segmentos dos Clientes].[Segmento].[All]" dimensionUniqueName="[Segmentos dos Clientes]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Segmentos dos Clientes].[Segmento - Código]" caption="Segmento - Código" attribute="1" defaultMemberUniqueName="[Segmentos dos Clientes].[Segmento - Código].[All]" allUniqueName="[Segmentos dos Clientes].[Segmento - Código].[All]" dimensionUniqueName="[Segmentos dos Clientes]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Supervisores].[CHAVE]" caption="CHAVE" attribute="1" defaultMemberUniqueName="[Supervisores].[CHAVE].[All]" allUniqueName="[Supervisores].[CHAVE].[All]" dimensionUniqueName="[Supervisores]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Supervisores].[Supervisor]" caption="Supervisor" attribute="1" defaultMemberUniqueName="[Supervisores].[Supervisor].[All]" allUniqueName="[Supervisores].[Supervisor].[All]" dimensionUniqueName="[Supervisores]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Supervisores].[Supervisor - Código]" caption="Supervisor - Código" attribute="1" defaultMemberUniqueName="[Supervisores].[Supervisor - Código].[All]" allUniqueName="[Supervisores].[Supervisor - Código].[All]" dimensionUniqueName="[Supervisores]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Supervisores].[Supervisor - Situação]" caption="Supervisor - Situação" attribute="1" defaultMemberUniqueName="[Supervisores].[Supervisor - Situação].[All]" allUniqueName="[Supervisores].[Supervisor - Situação].[All]" dimensionUniqueName="[Supervisores]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Supervisores X Agentes].[Chave Agente de Venda]" caption="Chave Agente de Venda" attribute="1" defaultMemberUniqueName="[Supervisores X Agentes].[Chave Agente de Venda].[All]" allUniqueName="[Supervisores X Agentes].[Chave Agente de Venda].[All]" dimensionUniqueName="[Supervisores X Agentes]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Supervisores X Agentes].[Chave Supervisor]" caption="Chave Supervisor" attribute="1" defaultMemberUniqueName="[Supervisores X Agentes].[Chave Supervisor].[All]" allUniqueName="[Supervisores X Agentes].[Chave Supervisor].[All]" dimensionUniqueName="[Supervisores X Agentes]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Supervisores X Agentes].[Código Agente]" caption="Código Agente" attribute="1" defaultMemberUniqueName="[Supervisores X Agentes].[Código Agente].[All]" allUniqueName="[Supervisores X Agentes].[Código Agente].[All]" dimensionUniqueName="[Supervisores X Agentes]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Supervisores X Agentes].[Código Supervisor]" caption="Código Supervisor" attribute="1" defaultMemberUniqueName="[Supervisores X Agentes].[Código Supervisor].[All]" allUniqueName="[Supervisores X Agentes].[Código Supervisor].[All]" dimensionUniqueName="[Supervisores X Agentes]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Supervisores X Agentes].[Empresa]" caption="Empresa" attribute="1" defaultMemberUniqueName="[Supervisores X Agentes].[Empresa].[All]" allUniqueName="[Supervisores X Agentes].[Empresa].[All]" dimensionUniqueName="[Supervisores X Agentes]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Tabela de Venda].[Chave Tabela de Venda]" caption="Chave Tabela de Venda" attribute="1" defaultMemberUniqueName="[Tabela de Venda].[Chave Tabela de Venda].[All]" allUniqueName="[Tabela de Venda].[Chave Tabela de Venda].[All]" dimensionUniqueName="[Tabela de Venda]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Tabela de Venda].[Código Tabela de Venda]" caption="Código Tabela de Venda" attribute="1" defaultMemberUniqueName="[Tabela de Venda].[Código Tabela de Venda].[All]" allUniqueName="[Tabela de Venda].[Código Tabela de Venda].[All]" dimensionUniqueName="[Tabela de Venda]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Tabela de Venda].[Data de Validade Tabela de Venda]" caption="Data de Validade Tabela de Venda" attribute="1" defaultMemberUniqueName="[Tabela de Venda].[Data de Validade Tabela de Venda].[All]" allUniqueName="[Tabela de Venda].[Data de Validade Tabela de Venda].[All]" dimensionUniqueName="[Tabela de Venda]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Tabela de Venda].[Status da Tabela de Venda]" caption="Status da Tabela de Venda" attribute="1" defaultMemberUniqueName="[Tabela de Venda].[Status da Tabela de Venda].[All]" allUniqueName="[Tabela de Venda].[Status da Tabela de Venda].[All]" dimensionUniqueName="[Tabela de Venda]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Tabela de Venda].[Tabela de Venda]" caption="Tabela de Venda" attribute="1" defaultMemberUniqueName="[Tabela de Venda].[Tabela de Venda].[All]" allUniqueName="[Tabela de Venda].[Tabela de Venda].[All]" dimensionUniqueName="[Tabela de Venda]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="9"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Tabela de Venda].[Tabela de Venda Completo]" caption="Tabela de Venda Completo" attribute="1" defaultMemberUniqueName="[Tabela de Venda].[Tabela de Venda Completo].[All]" allUniqueName="[Tabela de Venda].[Tabela de Venda Completo].[All]" dimensionUniqueName="[Tabela de Venda]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Tipos de Movimentos].[Código]" caption="Código" attribute="1" defaultMemberUniqueName="[Tipos de Movimentos].[Código].[All]" allUniqueName="[Tipos de Movimentos].[Código].[All]" dimensionUniqueName="[Tipos de Movimentos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Tipos de Movimentos].[Tipo de Movimento]" caption="Tipo de Movimento" attribute="1" defaultMemberUniqueName="[Tipos de Movimentos].[Tipo de Movimento].[All]" allUniqueName="[Tipos de Movimentos].[Tipo de Movimento].[All]" dimensionUniqueName="[Tipos de Movimentos]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Variáveis].[Chave Cliente]" caption="Chave Cliente" attribute="1" defaultMemberUniqueName="[Variáveis].[Chave Cliente].[All]" allUniqueName="[Variáveis].[Chave Cliente].[All]" dimensionUniqueName="[Variáveis]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Variáveis].[Código]" caption="Código" attribute="1" defaultMemberUniqueName="[Variáveis].[Código].[All]" allUniqueName="[Variáveis].[Código].[All]" dimensionUniqueName="[Variáveis]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Variáveis].[Data Cadastro]" caption="Data Cadastro" attribute="1" defaultMemberUniqueName="[Variáveis].[Data Cadastro].[All]" allUniqueName="[Variáveis].[Data Cadastro].[All]" dimensionUniqueName="[Variáveis]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Variáveis].[Descrição]" caption="Descrição" attribute="1" defaultMemberUniqueName="[Variáveis].[Descrição].[All]" allUniqueName="[Variáveis].[Descrição].[All]" dimensionUniqueName="[Variáveis]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Variáveis].[ID Variável]" caption="ID Variável" attribute="1" defaultMemberUniqueName="[Variáveis].[ID Variável].[All]" allUniqueName="[Variáveis].[ID Variável].[All]" dimensionUniqueName="[Variáveis]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Variáveis].[Resultado da Variável]" caption="Resultado da Variável" attribute="1" defaultMemberUniqueName="[Variáveis].[Resultado da Variável].[All]" allUniqueName="[Variáveis].[Resultado da Variável].[All]" dimensionUniqueName="[Variáveis]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Variáveis].[Variável]" caption="Variável" attribute="1" defaultMemberUniqueName="[Variáveis].[Variável].[All]" allUniqueName="[Variáveis].[Variável].[All]" dimensionUniqueName="[Variáveis]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Variáveis].[Variável - Float]" caption="Variável - Float" attribute="1" defaultMemberUniqueName="[Variáveis].[Variável - Float].[All]" allUniqueName="[Variáveis].[Variável - Float].[All]" dimensionUniqueName="[Variáveis]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Variáveis].[Variável Integer]" caption="Variável Integer" attribute="1" defaultMemberUniqueName="[Variáveis].[Variável Integer].[All]" allUniqueName="[Variáveis].[Variável Integer].[All]" dimensionUniqueName="[Variáveis]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Variáveis].[Variável String]" caption="Variável String" attribute="1" defaultMemberUniqueName="[Variáveis].[Variável String].[All]" allUniqueName="[Variáveis].[Variável String].[All]" dimensionUniqueName="[Variáveis]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Vendas].[Ano]" caption="Ano" attribute="1" defaultMemberUniqueName="[Vendas].[Ano].[All]" allUniqueName="[Vendas].[Ano].[All]" dimensionUniqueName="[Vendas]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="4"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Vendas].[Ano/Mês(Ordem)]" caption="Ano/Mês(Ordem)" attribute="1" defaultMemberUniqueName="[Vendas].[Ano/Mês(Ordem)].[All]" allUniqueName="[Vendas].[Ano/Mês(Ordem)].[All]" dimensionUniqueName="[Vendas]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="2"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Vendas].[AnoFinal]" caption="AnoFinal" attribute="1" defaultMemberUniqueName="[Vendas].[AnoFinal].[All]" allUniqueName="[Vendas].[AnoFinal].[All]" dimensionUniqueName="[Vendas]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Vendas].[AnoInicial]" caption="AnoInicial" attribute="1" defaultMemberUniqueName="[Vendas].[AnoInicial].[All]" allUniqueName="[Vendas].[AnoInicial].[All]" dimensionUniqueName="[Vendas]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Vendas].[Chave Agente de Cobrança]" caption="Chave Agente de Cobrança" attribute="1" defaultMemberUniqueName="[Vendas].[Chave Agente de Cobrança].[All]" allUniqueName="[Vendas].[Chave Agente de Cobrança].[All]" dimensionUniqueName="[Vendas]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Vendas].[Chave Agente de Tele-venda]" caption="Chave Agente de Tele-venda" attribute="1" defaultMemberUniqueName="[Vendas].[Chave Agente de Tele-venda].[All]" allUniqueName="[Vendas].[Chave Agente de Tele-venda].[All]" dimensionUniqueName="[Vendas]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Vendas].[Chave Agente de Venda]" caption="Chave Agente de Venda" attribute="1" defaultMemberUniqueName="[Vendas].[Chave Agente de Venda].[All]" allUniqueName="[Vendas].[Chave Agente de Venda].[All]" dimensionUniqueName="[Vendas]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Vendas].[Chave Almoxarifado]" caption="Chave Almoxarifado" attribute="1" defaultMemberUniqueName="[Vendas].[Chave Almoxarifado].[All]" allUniqueName="[Vendas].[Chave Almoxarifado].[All]" dimensionUniqueName="[Vendas]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Vendas].[Chave Canal de Venda]" caption="Chave Canal de Venda" attribute="1" defaultMemberUniqueName="[Vendas].[Chave Canal de Venda].[All]" allUniqueName="[Vendas].[Chave Canal de Venda].[All]" dimensionUniqueName="[Vendas]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Vendas].[Chave Cliente]" caption="Chave Cliente" attribute="1" defaultMemberUniqueName="[Vendas].[Chave Cliente].[All]" allUniqueName="[Vendas].[Chave Cliente].[All]" dimensionUniqueName="[Vendas]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Vendas].[Chave Condição de Pagamento]" caption="Chave Condição de Pagamento" attribute="1" defaultMemberUniqueName="[Vendas].[Chave Condição de Pagamento].[All]" allUniqueName="[Vendas].[Chave Condição de Pagamento].[All]" dimensionUniqueName="[Vendas]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Vendas].[Chave Venda]" caption="Chave Venda" attribute="1" defaultMemberUniqueName="[Vendas].[Chave Venda].[All]" allUniqueName="[Vendas].[Chave Venda].[All]" dimensionUniqueName="[Vendas]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Vendas].[Código Empresa]" caption="Código Empresa" attribute="1" defaultMemberUniqueName="[Vendas].[Código Empresa].[All]" allUniqueName="[Vendas].[Código Empresa].[All]" dimensionUniqueName="[Vendas]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Vendas].[Data]" caption="Data" attribute="1" defaultMemberUniqueName="[Vendas].[Data].[All]" allUniqueName="[Vendas].[Data].[All]" dimensionUniqueName="[Vendas]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Vendas].[Dia]" caption="Dia" attribute="1" defaultMemberUniqueName="[Vendas].[Dia].[All]" allUniqueName="[Vendas].[Dia].[All]" dimensionUniqueName="[Vendas]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Vendas].[Documento]" caption="Documento" attribute="1" defaultMemberUniqueName="[Vendas].[Documento].[All]" allUniqueName="[Vendas].[Documento].[All]" dimensionUniqueName="[Vendas]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Vendas].[Mês]" caption="Mês" attribute="1" defaultMemberUniqueName="[Vendas].[Mês].[All]" allUniqueName="[Vendas].[Mês].[All]" dimensionUniqueName="[Vendas]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="3"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Vendas].[Mês(Número)]" caption="Mês(Número)" attribute="1" defaultMemberUniqueName="[Vendas].[Mês(Número)].[All]" allUniqueName="[Vendas].[Mês(Número)].[All]" dimensionUniqueName="[Vendas]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Vendas].[Mês(NúmeroOrdem)]" caption="Mês(NúmeroOrdem)" attribute="1" defaultMemberUniqueName="[Vendas].[Mês(NúmeroOrdem)].[All]" allUniqueName="[Vendas].[Mês(NúmeroOrdem)].[All]" dimensionUniqueName="[Vendas]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Vendas].[Mês/Ano(Extenso)]" caption="Mês/Ano(Extenso)" attribute="1" defaultMemberUniqueName="[Vendas].[Mês/Ano(Extenso)].[All]" allUniqueName="[Vendas].[Mês/Ano(Extenso)].[All]" dimensionUniqueName="[Vendas]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[DateTableTemplate_1c5cf662-8a40-40c2-896a-55d3c9a1d239].[Ano]" caption="Ano" attribute="1" defaultMemberUniqueName="[DateTableTemplate_1c5cf662-8a40-40c2-896a-55d3c9a1d239].[Ano].[All]" allUniqueName="[DateTableTemplate_1c5cf662-8a40-40c2-896a-55d3c9a1d239].[Ano].[All]" dimensionUniqueName="[DateTableTemplate_1c5cf662-8a40-40c2-896a-55d3c9a1d239]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[DateTableTemplate_1c5cf662-8a40-40c2-896a-55d3c9a1d239].[Date]" caption="Date" attribute="1" defaultMemberUniqueName="[DateTableTemplate_1c5cf662-8a40-40c2-896a-55d3c9a1d239].[Date].[All]" allUniqueName="[DateTableTemplate_1c5cf662-8a40-40c2-896a-55d3c9a1d239].[Date].[All]" dimensionUniqueName="[DateTableTemplate_1c5cf662-8a40-40c2-896a-55d3c9a1d239]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[DateTableTemplate_1c5cf662-8a40-40c2-896a-55d3c9a1d239].[Dia]" caption="Dia" attribute="1" defaultMemberUniqueName="[DateTableTemplate_1c5cf662-8a40-40c2-896a-55d3c9a1d239].[Dia].[All]" allUniqueName="[DateTableTemplate_1c5cf662-8a40-40c2-896a-55d3c9a1d239].[Dia].[All]" dimensionUniqueName="[DateTableTemplate_1c5cf662-8a40-40c2-896a-55d3c9a1d239]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[DateTableTemplate_1c5cf662-8a40-40c2-896a-55d3c9a1d239].[Mês]" caption="Mês" attribute="1" defaultMemberUniqueName="[DateTableTemplate_1c5cf662-8a40-40c2-896a-55d3c9a1d239].[Mês].[All]" allUniqueName="[DateTableTemplate_1c5cf662-8a40-40c2-896a-55d3c9a1d239].[Mês].[All]" dimensionUniqueName="[DateTableTemplate_1c5cf662-8a40-40c2-896a-55d3c9a1d239]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[DateTableTemplate_1c5cf662-8a40-40c2-896a-55d3c9a1d239].[MonthNo]" caption="MonthNo" attribute="1" defaultMemberUniqueName="[DateTableTemplate_1c5cf662-8a40-40c2-896a-55d3c9a1d239].[MonthNo].[All]" allUniqueName="[DateTableTemplate_1c5cf662-8a40-40c2-896a-55d3c9a1d239].[MonthNo].[All]" dimensionUniqueName="[DateTableTemplate_1c5cf662-8a40-40c2-896a-55d3c9a1d239]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[DateTableTemplate_1c5cf662-8a40-40c2-896a-55d3c9a1d239].[QuarterNo]" caption="QuarterNo" attribute="1" defaultMemberUniqueName="[DateTableTemplate_1c5cf662-8a40-40c2-896a-55d3c9a1d239].[QuarterNo].[All]" allUniqueName="[DateTableTemplate_1c5cf662-8a40-40c2-896a-55d3c9a1d239].[QuarterNo].[All]" dimensionUniqueName="[DateTableTemplate_1c5cf662-8a40-40c2-896a-55d3c9a1d239]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[DateTableTemplate_1c5cf662-8a40-40c2-896a-55d3c9a1d239].[Trimestre]" caption="Trimestre" attribute="1" defaultMemberUniqueName="[DateTableTemplate_1c5cf662-8a40-40c2-896a-55d3c9a1d239].[Trimestre].[All]" allUniqueName="[DateTableTemplate_1c5cf662-8a40-40c2-896a-55d3c9a1d239].[Trimestre].[All]" dimensionUniqueName="[DateTableTemplate_1c5cf662-8a40-40c2-896a-55d3c9a1d239]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Divisões de Produtos].[Divisão Nível 1]" caption="Divisão Nível 1" attribute="1" defaultMemberUniqueName="[Divisões de Produtos].[Divisão Nível 1].[All]" allUniqueName="[Divisões de Produtos].[Divisão Nível 1].[All]" dimensionUniqueName="[Divisões de Produtos]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Divisões de Produtos].[Divisão Nível 2]" caption="Divisão Nível 2" attribute="1" defaultMemberUniqueName="[Divisões de Produtos].[Divisão Nível 2].[All]" allUniqueName="[Divisões de Produtos].[Divisão Nível 2].[All]" dimensionUniqueName="[Divisões de Produtos]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Divisões de Produtos].[Divisão Nível 3]" caption="Divisão Nível 3" attribute="1" defaultMemberUniqueName="[Divisões de Produtos].[Divisão Nível 3].[All]" allUniqueName="[Divisões de Produtos].[Divisão Nível 3].[All]" dimensionUniqueName="[Divisões de Produtos]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Divisões de Produtos].[Divisão Nível 4]" caption="Divisão Nível 4" attribute="1" defaultMemberUniqueName="[Divisões de Produtos].[Divisão Nível 4].[All]" allUniqueName="[Divisões de Produtos].[Divisão Nível 4].[All]" dimensionUniqueName="[Divisões de Produtos]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Divisões de Produtos].[Divisão Nível 5]" caption="Divisão Nível 5" attribute="1" defaultMemberUniqueName="[Divisões de Produtos].[Divisão Nível 5].[All]" allUniqueName="[Divisões de Produtos].[Divisão Nível 5].[All]" dimensionUniqueName="[Divisões de Produtos]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Fornecedores dos Produtos].[Chave do Produto]" caption="Chave do Produto" attribute="1" defaultMemberUniqueName="[Fornecedores dos Produtos].[Chave do Produto].[All]" allUniqueName="[Fornecedores dos Produtos].[Chave do Produto].[All]" dimensionUniqueName="[Fornecedores dos Produtos]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Fornecedores dos Produtos].[Fornecedor - Código]" caption="Fornecedor - Código" attribute="1" defaultMemberUniqueName="[Fornecedores dos Produtos].[Fornecedor - Código].[All]" allUniqueName="[Fornecedores dos Produtos].[Fornecedor - Código].[All]" dimensionUniqueName="[Fornecedores dos Produtos]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[LocalDateTable_8f172173-e5f2-4e80-b462-4e5203f6430d].[Ano]" caption="Ano" attribute="1" defaultMemberUniqueName="[LocalDateTable_8f172173-e5f2-4e80-b462-4e5203f6430d].[Ano].[All]" allUniqueName="[LocalDateTable_8f172173-e5f2-4e80-b462-4e5203f6430d].[Ano].[All]" dimensionUniqueName="[LocalDateTable_8f172173-e5f2-4e80-b462-4e5203f6430d]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[LocalDateTable_8f172173-e5f2-4e80-b462-4e5203f6430d].[Date]" caption="Date" attribute="1" defaultMemberUniqueName="[LocalDateTable_8f172173-e5f2-4e80-b462-4e5203f6430d].[Date].[All]" allUniqueName="[LocalDateTable_8f172173-e5f2-4e80-b462-4e5203f6430d].[Date].[All]" dimensionUniqueName="[LocalDateTable_8f172173-e5f2-4e80-b462-4e5203f6430d]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[LocalDateTable_8f172173-e5f2-4e80-b462-4e5203f6430d].[Dia]" caption="Dia" attribute="1" defaultMemberUniqueName="[LocalDateTable_8f172173-e5f2-4e80-b462-4e5203f6430d].[Dia].[All]" allUniqueName="[LocalDateTable_8f172173-e5f2-4e80-b462-4e5203f6430d].[Dia].[All]" dimensionUniqueName="[LocalDateTable_8f172173-e5f2-4e80-b462-4e5203f6430d]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[LocalDateTable_8f172173-e5f2-4e80-b462-4e5203f6430d].[Hierarquia de Datas]" caption="Hierarquia de Datas" defaultMemberUniqueName="[LocalDateTable_8f172173-e5f2-4e80-b462-4e5203f6430d].[Hierarquia de Datas].[All]" allUniqueName="[LocalDateTable_8f172173-e5f2-4e80-b462-4e5203f6430d].[Hierarquia de Datas].[All]" dimensionUniqueName="[LocalDateTable_8f172173-e5f2-4e80-b462-4e5203f6430d]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[LocalDateTable_8f172173-e5f2-4e80-b462-4e5203f6430d].[Mês]" caption="Mês" attribute="1" defaultMemberUniqueName="[LocalDateTable_8f172173-e5f2-4e80-b462-4e5203f6430d].[Mês].[All]" allUniqueName="[LocalDateTable_8f172173-e5f2-4e80-b462-4e5203f6430d].[Mês].[All]" dimensionUniqueName="[LocalDateTable_8f172173-e5f2-4e80-b462-4e5203f6430d]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[LocalDateTable_8f172173-e5f2-4e80-b462-4e5203f6430d].[MonthNo]" caption="MonthNo" attribute="1" defaultMemberUniqueName="[LocalDateTable_8f172173-e5f2-4e80-b462-4e5203f6430d].[MonthNo].[All]" allUniqueName="[LocalDateTable_8f172173-e5f2-4e80-b462-4e5203f6430d].[MonthNo].[All]" dimensionUniqueName="[LocalDateTable_8f172173-e5f2-4e80-b462-4e5203f6430d]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[LocalDateTable_8f172173-e5f2-4e80-b462-4e5203f6430d].[QuarterNo]" caption="QuarterNo" attribute="1" defaultMemberUniqueName="[LocalDateTable_8f172173-e5f2-4e80-b462-4e5203f6430d].[QuarterNo].[All]" allUniqueName="[LocalDateTable_8f172173-e5f2-4e80-b462-4e5203f6430d].[QuarterNo].[All]" dimensionUniqueName="[LocalDateTable_8f172173-e5f2-4e80-b462-4e5203f6430d]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[LocalDateTable_8f172173-e5f2-4e80-b462-4e5203f6430d].[Trimestre]" caption="Trimestre" attribute="1" defaultMemberUniqueName="[LocalDateTable_8f172173-e5f2-4e80-b462-4e5203f6430d].[Trimestre].[All]" allUniqueName="[LocalDateTable_8f172173-e5f2-4e80-b462-4e5203f6430d].[Trimestre].[All]" dimensionUniqueName="[LocalDateTable_8f172173-e5f2-4e80-b462-4e5203f6430d]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[LocalDateTable_ba934b29-0be9-45fc-a5b6-a2a0bace3d1b].[Ano]" caption="Ano" attribute="1" defaultMemberUniqueName="[LocalDateTable_ba934b29-0be9-45fc-a5b6-a2a0bace3d1b].[Ano].[All]" allUniqueName="[LocalDateTable_ba934b29-0be9-45fc-a5b6-a2a0bace3d1b].[Ano].[All]" dimensionUniqueName="[LocalDateTable_ba934b29-0be9-45fc-a5b6-a2a0bace3d1b]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[LocalDateTable_ba934b29-0be9-45fc-a5b6-a2a0bace3d1b].[Date]" caption="Date" attribute="1" defaultMemberUniqueName="[LocalDateTable_ba934b29-0be9-45fc-a5b6-a2a0bace3d1b].[Date].[All]" allUniqueName="[LocalDateTable_ba934b29-0be9-45fc-a5b6-a2a0bace3d1b].[Date].[All]" dimensionUniqueName="[LocalDateTable_ba934b29-0be9-45fc-a5b6-a2a0bace3d1b]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[LocalDateTable_ba934b29-0be9-45fc-a5b6-a2a0bace3d1b].[Dia]" caption="Dia" attribute="1" defaultMemberUniqueName="[LocalDateTable_ba934b29-0be9-45fc-a5b6-a2a0bace3d1b].[Dia].[All]" allUniqueName="[LocalDateTable_ba934b29-0be9-45fc-a5b6-a2a0bace3d1b].[Dia].[All]" dimensionUniqueName="[LocalDateTable_ba934b29-0be9-45fc-a5b6-a2a0bace3d1b]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[LocalDateTable_ba934b29-0be9-45fc-a5b6-a2a0bace3d1b].[Hierarquia de Datas]" caption="Hierarquia de Datas" defaultMemberUniqueName="[LocalDateTable_ba934b29-0be9-45fc-a5b6-a2a0bace3d1b].[Hierarquia de Datas].[All]" allUniqueName="[LocalDateTable_ba934b29-0be9-45fc-a5b6-a2a0bace3d1b].[Hierarquia de Datas].[All]" dimensionUniqueName="[LocalDateTable_ba934b29-0be9-45fc-a5b6-a2a0bace3d1b]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[LocalDateTable_ba934b29-0be9-45fc-a5b6-a2a0bace3d1b].[Mês]" caption="Mês" attribute="1" defaultMemberUniqueName="[LocalDateTable_ba934b29-0be9-45fc-a5b6-a2a0bace3d1b].[Mês].[All]" allUniqueName="[LocalDateTable_ba934b29-0be9-45fc-a5b6-a2a0bace3d1b].[Mês].[All]" dimensionUniqueName="[LocalDateTable_ba934b29-0be9-45fc-a5b6-a2a0bace3d1b]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[LocalDateTable_ba934b29-0be9-45fc-a5b6-a2a0bace3d1b].[MonthNo]" caption="MonthNo" attribute="1" defaultMemberUniqueName="[LocalDateTable_ba934b29-0be9-45fc-a5b6-a2a0bace3d1b].[MonthNo].[All]" allUniqueName="[LocalDateTable_ba934b29-0be9-45fc-a5b6-a2a0bace3d1b].[MonthNo].[All]" dimensionUniqueName="[LocalDateTable_ba934b29-0be9-45fc-a5b6-a2a0bace3d1b]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[LocalDateTable_ba934b29-0be9-45fc-a5b6-a2a0bace3d1b].[QuarterNo]" caption="QuarterNo" attribute="1" defaultMemberUniqueName="[LocalDateTable_ba934b29-0be9-45fc-a5b6-a2a0bace3d1b].[QuarterNo].[All]" allUniqueName="[LocalDateTable_ba934b29-0be9-45fc-a5b6-a2a0bace3d1b].[QuarterNo].[All]" dimensionUniqueName="[LocalDateTable_ba934b29-0be9-45fc-a5b6-a2a0bace3d1b]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[LocalDateTable_ba934b29-0be9-45fc-a5b6-a2a0bace3d1b].[Trimestre]" caption="Trimestre" attribute="1" defaultMemberUniqueName="[LocalDateTable_ba934b29-0be9-45fc-a5b6-a2a0bace3d1b].[Trimestre].[All]" allUniqueName="[LocalDateTable_ba934b29-0be9-45fc-a5b6-a2a0bace3d1b].[Trimestre].[All]" dimensionUniqueName="[LocalDateTable_ba934b29-0be9-45fc-a5b6-a2a0bace3d1b]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[LocalDateTable_bc159839-04ad-4cb5-ad79-1deea3a18795].[Ano]" caption="Ano" attribute="1" defaultMemberUniqueName="[LocalDateTable_bc159839-04ad-4cb5-ad79-1deea3a18795].[Ano].[All]" allUniqueName="[LocalDateTable_bc159839-04ad-4cb5-ad79-1deea3a18795].[Ano].[All]" dimensionUniqueName="[LocalDateTable_bc159839-04ad-4cb5-ad79-1deea3a18795]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[LocalDateTable_bc159839-04ad-4cb5-ad79-1deea3a18795].[Date]" caption="Date" attribute="1" defaultMemberUniqueName="[LocalDateTable_bc159839-04ad-4cb5-ad79-1deea3a18795].[Date].[All]" allUniqueName="[LocalDateTable_bc159839-04ad-4cb5-ad79-1deea3a18795].[Date].[All]" dimensionUniqueName="[LocalDateTable_bc159839-04ad-4cb5-ad79-1deea3a18795]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[LocalDateTable_bc159839-04ad-4cb5-ad79-1deea3a18795].[Dia]" caption="Dia" attribute="1" defaultMemberUniqueName="[LocalDateTable_bc159839-04ad-4cb5-ad79-1deea3a18795].[Dia].[All]" allUniqueName="[LocalDateTable_bc159839-04ad-4cb5-ad79-1deea3a18795].[Dia].[All]" dimensionUniqueName="[LocalDateTable_bc159839-04ad-4cb5-ad79-1deea3a18795]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[LocalDateTable_bc159839-04ad-4cb5-ad79-1deea3a18795].[Hierarquia de Datas]" caption="Hierarquia de Datas" defaultMemberUniqueName="[LocalDateTable_bc159839-04ad-4cb5-ad79-1deea3a18795].[Hierarquia de Datas].[All]" allUniqueName="[LocalDateTable_bc159839-04ad-4cb5-ad79-1deea3a18795].[Hierarquia de Datas].[All]" dimensionUniqueName="[LocalDateTable_bc159839-04ad-4cb5-ad79-1deea3a18795]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[LocalDateTable_bc159839-04ad-4cb5-ad79-1deea3a18795].[Mês]" caption="Mês" attribute="1" defaultMemberUniqueName="[LocalDateTable_bc159839-04ad-4cb5-ad79-1deea3a18795].[Mês].[All]" allUniqueName="[LocalDateTable_bc159839-04ad-4cb5-ad79-1deea3a18795].[Mês].[All]" dimensionUniqueName="[LocalDateTable_bc159839-04ad-4cb5-ad79-1deea3a18795]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[LocalDateTable_bc159839-04ad-4cb5-ad79-1deea3a18795].[MonthNo]" caption="MonthNo" attribute="1" defaultMemberUniqueName="[LocalDateTable_bc159839-04ad-4cb5-ad79-1deea3a18795].[MonthNo].[All]" allUniqueName="[LocalDateTable_bc159839-04ad-4cb5-ad79-1deea3a18795].[MonthNo].[All]" dimensionUniqueName="[LocalDateTable_bc159839-04ad-4cb5-ad79-1deea3a18795]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[LocalDateTable_bc159839-04ad-4cb5-ad79-1deea3a18795].[QuarterNo]" caption="QuarterNo" attribute="1" defaultMemberUniqueName="[LocalDateTable_bc159839-04ad-4cb5-ad79-1deea3a18795].[QuarterNo].[All]" allUniqueName="[LocalDateTable_bc159839-04ad-4cb5-ad79-1deea3a18795].[QuarterNo].[All]" dimensionUniqueName="[LocalDateTable_bc159839-04ad-4cb5-ad79-1deea3a18795]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[LocalDateTable_bc159839-04ad-4cb5-ad79-1deea3a18795].[Trimestre]" caption="Trimestre" attribute="1" defaultMemberUniqueName="[LocalDateTable_bc159839-04ad-4cb5-ad79-1deea3a18795].[Trimestre].[All]" allUniqueName="[LocalDateTable_bc159839-04ad-4cb5-ad79-1deea3a18795].[Trimestre].[All]" dimensionUniqueName="[LocalDateTable_bc159839-04ad-4cb5-ad79-1deea3a18795]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Valor Total - Diferença Anos Percentual]" caption="Valor Total - Diferença Anos Percentual" measure="1" displayFolder="" measureGroup="Movimentos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Valor Total - Ultimo Ano]" caption="Valor Total - Ultimo Ano" measure="1" displayFolder="" measureGroup="Movimentos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Valor Total - Primeiro Ano]" caption="Valor Total - Primeiro Ano" measure="1" displayFolder="" measureGroup="Movimentos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Ticket Médio de Venda]" caption="Ticket Médio de Venda" measure="1" displayFolder="" measureGroup="Movimentos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Ticket Médio Por Clientes da Carteira]" caption="Ticket Médio Por Clientes da Carteira" measure="1" displayFolder="" measureGroup="Movimentos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Qtd de Vendas]" caption="Qtd de Vendas" measure="1" displayFolder="" measureGroup="Movimentos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Qtd de Clientes na Carteira]" caption="Qtd de Clientes na Carteira" measure="1" displayFolder="" measureGroup="Movimentos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Qtd de Habitantes]" caption="Qtd de Habitantes" measure="1" displayFolder="" measureGroup="Movimentos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Ticket Médio Por Clientes Ativos]" caption="Ticket Médio Por Clientes Ativos" measure="1" displayFolder="" measureGroup="Movimentos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Qtd de Clientes Positivados]" caption="Qtd de Clientes Positivados" measure="1" displayFolder="" measureGroup="Movimentos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Valor Total - Primeiro Mês]" caption="Valor Total - Primeiro Mês" measure="1" displayFolder="" measureGroup="Movimentos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[100%]" caption="100%" measure="1" displayFolder="" measureGroup="Movimentos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Valor Total - Diferença Anos]" caption="Valor Total - Diferença Anos" measure="1" displayFolder="" measureGroup="Movimentos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Lucro Líquido - Primeiro Ano]" caption="Lucro Líquido - Primeiro Ano" measure="1" displayFolder="" measureGroup="Movimentos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Lucro Líquido - Ultimo Ano]" caption="Lucro Líquido - Ultimo Ano" measure="1" displayFolder="" measureGroup="Movimentos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Lucro Líquido - Percentual Primeiro]" caption="Lucro Líquido - Percentual Primeiro" measure="1" displayFolder="" measureGroup="Movimentos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Percentual de Lucro Líquido(Ultimo)]" caption="Percentual de Lucro Líquido(Ultimo)" measure="1" displayFolder="" measureGroup="Movimentos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Total de Descontos]" caption="Total de Descontos" measure="1" displayFolder="" measureGroup="Movimentos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[% Proporcional a Venda]" caption="% Proporcional a Venda" measure="1" displayFolder="" measureGroup="Movimentos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Diferença Mensal]" caption="Diferença Mensal" measure="1" displayFolder="" measureGroup="Movimentos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Diferença Anual]" caption="Diferença Anual" measure="1" displayFolder="" measureGroup="Movimentos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Valor Total Bruto]" caption="Valor Total Bruto" measure="1" displayFolder="" measureGroup="Movimentos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Valor Total de Venda]" caption="Valor Total de Venda" measure="1" displayFolder="" measureGroup="Movimentos" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="5"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Qtd Itens - Devoluções de Vendas]" caption="Qtd Itens - Devoluções de Vendas" measure="1" displayFolder="" measureGroup="Movimentos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Valor de Venda - Devoluções]" caption="Valor de Venda - Devoluções" measure="1" displayFolder="" measureGroup="Movimentos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Prazo Médio]" caption="Prazo Médio" measure="1" displayFolder="" measureGroup="Movimentos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Faturamento]" caption="Faturamento" measure="1" displayFolder="" measureGroup="Movimentos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Qtd. de Produtos Positivados]" caption="Qtd. de Produtos Positivados" measure="1" displayFolder="" measureGroup="Movimentos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Qtd]" caption="Qtd" measure="1" displayFolder="" measureGroup="Cidades" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Qtd Cidades com Vendas]" caption="Qtd Cidades com Vendas" measure="1" displayFolder="" measureGroup="Cidades" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Qtd Clientes com Vendas]" caption="Qtd Clientes com Vendas" measure="1" displayFolder="" measureGroup="Cidades" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Qtd Clientes  Ativos]" caption="Qtd Clientes  Ativos" measure="1" displayFolder="" measureGroup="Clientes" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[% de Clientes Ativos]" caption="% de Clientes Ativos" measure="1" displayFolder="" measureGroup="Clientes" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Qtd. de Clientes Ativos Except de Vendas]" caption="Qtd. de Clientes Ativos Except de Vendas" measure="1" displayFolder="" measureGroup="Clientes" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Qtd Clientes Inativos]" caption="Qtd Clientes Inativos" measure="1" displayFolder="" measureGroup="Clientes" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Mix Divisões]" caption="Mix Divisões" measure="1" displayFolder="" measureGroup="Divisões de Produtos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Mix Marcas]" caption="Mix Marcas" measure="1" displayFolder="" measureGroup="Marcas de Produtos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Positivação de Clientes]" caption="Positivação de Clientes" measure="1" displayFolder="" measureGroup="Vendas" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Qtd. Vendas Diretas]" caption="Qtd. Vendas Diretas" measure="1" displayFolder="" measureGroup="Vendas" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Qtd. Vendas Indiretas]" caption="Qtd. Vendas Indiretas" measure="1" displayFolder="" measureGroup="Vendas" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Vlr. Vendas Indiretas]" caption="Vlr. Vendas Indiretas" measure="1" displayFolder="" measureGroup="Vendas" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Vlr. Vendas Diretas]" caption="Vlr. Vendas Diretas" measure="1" displayFolder="" measureGroup="Vendas" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Qtd. Vendas]" caption="Qtd. Vendas" measure="1" displayFolder="" measureGroup="Vendas" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Qtd. Vendas Indiretas (%)]" caption="Qtd. Vendas Indiretas (%)" measure="1" displayFolder="" measureGroup="Vendas" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Qtd. Vendas Diretas (%)]" caption="Qtd. Vendas Diretas (%)" measure="1" displayFolder="" measureGroup="Vendas" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Vlr. Vendas Indiretas (%)]" caption="Vlr. Vendas Indiretas (%)" measure="1" displayFolder="" measureGroup="Vendas" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Vlr. Vendas Diretas (%)]" caption="Vlr. Vendas Diretas (%)" measure="1" displayFolder="" measureGroup="Vendas" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[% MLL Acumulado]" caption="% MLL Acumulado" measure="1" displayFolder="" measureGroup="Vendas" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Data da Última Compra]" caption="Data da Última Compra" measure="1" displayFolder="" measureGroup="Vendas" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Tempo Médio de Recompra (Mês)]" caption="Tempo Médio de Recompra (Mês)" measure="1" displayFolder="" measureGroup="Vendas" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Tempo Médio de Recompra (Dias)]" caption="Tempo Médio de Recompra (Dias)" measure="1" displayFolder="" measureGroup="Vendas" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[% de Produtos Ativos]" caption="% de Produtos Ativos" measure="1" displayFolder="" measureGroup="Produtos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Qtd. Produtos - Catálogo (Ativos)]" caption="Qtd. Produtos - Catálogo (Ativos)" measure="1" displayFolder="" measureGroup="Produtos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Qtd Produtos - Catálogo]" caption="Qtd Produtos - Catálogo" measure="1" displayFolder="" measureGroup="Produtos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Qtd. Produtos - Catálogo (Ativos) - Except de Vendas]" caption="Qtd. Produtos - Catálogo (Ativos) - Except de Vendas" measure="1" displayFolder="" measureGroup="Produtos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[__Default measure]" caption="__Default measure" measure="1" displayFolder="" count="0" hidden="1"/>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="29">
-    <dimension name="Agentes de Cobrança" uniqueName="[Agentes de Cobrança]" caption="Agentes de Cobrança"/>
-    <dimension name="Agentes de TeleVendas" uniqueName="[Agentes de TeleVendas]" caption="Agentes de TeleVendas"/>
-    <dimension name="Agentes de Venda x Clientes" uniqueName="[Agentes de Venda x Clientes]" caption="Agentes de Venda x Clientes"/>
-    <dimension name="Agentes de Vendas" uniqueName="[Agentes de Vendas]" caption="Agentes de Vendas"/>
-    <dimension name="Canais de Vendas" uniqueName="[Canais de Vendas]" caption="Canais de Vendas"/>
-    <dimension name="Categoria do Produto" uniqueName="[Categoria do Produto]" caption="Categoria do Produto"/>
-    <dimension name="Cidades" uniqueName="[Cidades]" caption="Cidades"/>
-    <dimension name="Classificação Comercial" uniqueName="[Classificação Comercial]" caption="Classificação Comercial"/>
-    <dimension name="Clientes" uniqueName="[Clientes]" caption="Clientes"/>
-    <dimension name="Condição de Pagamento" uniqueName="[Condição de Pagamento]" caption="Condição de Pagamento"/>
-    <dimension name="DateTableTemplate_1c5cf662-8a40-40c2-896a-55d3c9a1d239" uniqueName="[DateTableTemplate_1c5cf662-8a40-40c2-896a-55d3c9a1d239]" caption="DateTableTemplate_1c5cf662-8a40-40c2-896a-55d3c9a1d239"/>
-    <dimension name="Divisões de Produtos" uniqueName="[Divisões de Produtos]" caption="Divisões de Produtos"/>
-    <dimension name="Empresas" uniqueName="[Empresas]" caption="Empresas"/>
-    <dimension name="Fornecedores" uniqueName="[Fornecedores]" caption="Fornecedores"/>
-    <dimension name="Grupo de Clientes" uniqueName="[Grupo de Clientes]" caption="Grupo de Clientes"/>
-    <dimension name="Linhas de Produtos" uniqueName="[Linhas de Produtos]" caption="Linhas de Produtos"/>
-    <dimension name="Marcas de Produtos" uniqueName="[Marcas de Produtos]" caption="Marcas de Produtos"/>
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-    <dimension name="Movimentos" uniqueName="[Movimentos]" caption="Movimentos"/>
-    <dimension name="Operações" uniqueName="[Operações]" caption="Operações"/>
-    <dimension name="Produtos" uniqueName="[Produtos]" caption="Produtos"/>
-    <dimension name="Regiões" uniqueName="[Regiões]" caption="Regiões"/>
-    <dimension name="Segmentos dos Clientes" uniqueName="[Segmentos dos Clientes]" caption="Segmentos dos Clientes"/>
-    <dimension name="Supervisores" uniqueName="[Supervisores]" caption="Supervisores"/>
-    <dimension name="Supervisores X Agentes" uniqueName="[Supervisores X Agentes]" caption="Supervisores X Agentes"/>
-    <dimension name="Tabela de Venda" uniqueName="[Tabela de Venda]" caption="Tabela de Venda"/>
-    <dimension name="Tipos de Movimentos" uniqueName="[Tipos de Movimentos]" caption="Tipos de Movimentos"/>
-    <dimension name="Variáveis" uniqueName="[Variáveis]" caption="Variáveis"/>
-    <dimension name="Vendas" uniqueName="[Vendas]" caption="Vendas"/>
-  </dimensions>
-  <measureGroups count="32">
-    <measureGroup name="Agentes de Cobrança" caption="Agentes de Cobrança"/>
-    <measureGroup name="Agentes de TeleVendas" caption="Agentes de TeleVendas"/>
-    <measureGroup name="Agentes de Venda x Clientes" caption="Agentes de Venda x Clientes"/>
-    <measureGroup name="Agentes de Vendas" caption="Agentes de Vendas"/>
-    <measureGroup name="Canais de Vendas" caption="Canais de Vendas"/>
-    <measureGroup name="Categoria do Produto" caption="Categoria do Produto"/>
-    <measureGroup name="Cidades" caption="Cidades"/>
-    <measureGroup name="Classificação Comercial" caption="Classificação Comercial"/>
-    <measureGroup name="Clientes" caption="Clientes"/>
-    <measureGroup name="Condição de Pagamento" caption="Condição de Pagamento"/>
-    <measureGroup name="DateTableTemplate_1c5cf662-8a40-40c2-896a-55d3c9a1d239" caption="DateTableTemplate_1c5cf662-8a40-40c2-896a-55d3c9a1d239"/>
-    <measureGroup name="Divisões de Produtos" caption="Divisões de Produtos"/>
-    <measureGroup name="Empresas" caption="Empresas"/>
-    <measureGroup name="Fornecedores" caption="Fornecedores"/>
-    <measureGroup name="Fornecedores dos Produtos" caption="Fornecedores dos Produtos"/>
-    <measureGroup name="Grupo de Clientes" caption="Grupo de Clientes"/>
-    <measureGroup name="Linhas de Produtos" caption="Linhas de Produtos"/>
-    <measureGroup name="LocalDateTable_8f172173-e5f2-4e80-b462-4e5203f6430d" caption="LocalDateTable_8f172173-e5f2-4e80-b462-4e5203f6430d"/>
-    <measureGroup name="LocalDateTable_ba934b29-0be9-45fc-a5b6-a2a0bace3d1b" caption="LocalDateTable_ba934b29-0be9-45fc-a5b6-a2a0bace3d1b"/>
-    <measureGroup name="LocalDateTable_bc159839-04ad-4cb5-ad79-1deea3a18795" caption="LocalDateTable_bc159839-04ad-4cb5-ad79-1deea3a18795"/>
-    <measureGroup name="Marcas de Produtos" caption="Marcas de Produtos"/>
-    <measureGroup name="Movimentos" caption="Movimentos"/>
-    <measureGroup name="Operações" caption="Operações"/>
-    <measureGroup name="Produtos" caption="Produtos"/>
-    <measureGroup name="Regiões" caption="Regiões"/>
-    <measureGroup name="Segmentos dos Clientes" caption="Segmentos dos Clientes"/>
-    <measureGroup name="Supervisores" caption="Supervisores"/>
-    <measureGroup name="Supervisores X Agentes" caption="Supervisores X Agentes"/>
-    <measureGroup name="Tabela de Venda" caption="Tabela de Venda"/>
-    <measureGroup name="Tipos de Movimentos" caption="Tipos de Movimentos"/>
-    <measureGroup name="Variáveis" caption="Variáveis"/>
-    <measureGroup name="Vendas" caption="Vendas"/>
-  </measureGroups>
-  <maps count="367">
-    <map measureGroup="0" dimension="0"/>
-    <map measureGroup="1" dimension="1"/>
-    <map measureGroup="2" dimension="0"/>
-    <map measureGroup="2" dimension="1"/>
-    <map measureGroup="2" dimension="2"/>
-    <map measureGroup="2" dimension="3"/>
-    <map measureGroup="2" dimension="4"/>
-    <map measureGroup="2" dimension="5"/>
-    <map measureGroup="2" dimension="6"/>
-    <map measureGroup="2" dimension="7"/>
-    <map measureGroup="2" dimension="8"/>
-    <map measureGroup="2" dimension="9"/>
-    <map measureGroup="2" dimension="11"/>
-    <map measureGroup="2" dimension="12"/>
-    <map measureGroup="2" dimension="13"/>
-    <map measureGroup="2" dimension="14"/>
-    <map measureGroup="2" dimension="15"/>
-    <map measureGroup="2" dimension="16"/>
-    <map measureGroup="2" dimension="18"/>
-    <map measureGroup="2" dimension="19"/>
-    <map measureGroup="2" dimension="20"/>
-    <map measureGroup="2" dimension="21"/>
-    <map measureGroup="2" dimension="22"/>
-    <map measureGroup="2" dimension="23"/>
-    <map measureGroup="2" dimension="24"/>
-    <map measureGroup="2" dimension="25"/>
-    <map measureGroup="2" dimension="26"/>
-    <map measureGroup="2" dimension="28"/>
-    <map measureGroup="3" dimension="0"/>
-    <map measureGroup="3" dimension="1"/>
-    <map measureGroup="3" dimension="3"/>
-    <map measureGroup="3" dimension="4"/>
-    <map measureGroup="3" dimension="5"/>
-    <map measureGroup="3" dimension="6"/>
-    <map measureGroup="3" dimension="7"/>
-    <map measureGroup="3" dimension="8"/>
-    <map measureGroup="3" dimension="9"/>
-    <map measureGroup="3" dimension="11"/>
-    <map measureGroup="3" dimension="12"/>
-    <map measureGroup="3" dimension="13"/>
-    <map measureGroup="3" dimension="14"/>
-    <map measureGroup="3" dimension="15"/>
-    <map measureGroup="3" dimension="16"/>
-    <map measureGroup="3" dimension="18"/>
-    <map measureGroup="3" dimension="19"/>
-    <map measureGroup="3" dimension="20"/>
-    <map measureGroup="3" dimension="21"/>
-    <map measureGroup="3" dimension="22"/>
-    <map measureGroup="3" dimension="23"/>
-    <map measureGroup="3" dimension="24"/>
-    <map measureGroup="3" dimension="25"/>
-    <map measureGroup="3" dimension="26"/>
-    <map measureGroup="3" dimension="28"/>
-    <map measureGroup="4" dimension="4"/>
-    <map measureGroup="5" dimension="5"/>
-    <map measureGroup="6" dimension="6"/>
-    <map measureGroup="7" dimension="7"/>
-    <map measureGroup="8" dimension="0"/>
-    <map measureGroup="8" dimension="1"/>
-    <map measureGroup="8" dimension="3"/>
-    <map measureGroup="8" dimension="4"/>
-    <map measureGroup="8" dimension="5"/>
-    <map measureGroup="8" dimension="6"/>
-    <map measureGroup="8" dimension="7"/>
-    <map measureGroup="8" dimension="8"/>
-    <map measureGroup="8" dimension="9"/>
-    <map measureGroup="8" dimension="11"/>
-    <map measureGroup="8" dimension="12"/>
-    <map measureGroup="8" dimension="13"/>
-    <map measureGroup="8" dimension="14"/>
-    <map measureGroup="8" dimension="15"/>
-    <map measureGroup="8" dimension="16"/>
-    <map measureGroup="8" dimension="18"/>
-    <map measureGroup="8" dimension="19"/>
-    <map measureGroup="8" dimension="20"/>
-    <map measureGroup="8" dimension="21"/>
-    <map measureGroup="8" dimension="22"/>
-    <map measureGroup="8" dimension="23"/>
-    <map measureGroup="8" dimension="24"/>
-    <map measureGroup="8" dimension="25"/>
-    <map measureGroup="8" dimension="26"/>
-    <map measureGroup="8" dimension="28"/>
-    <map measureGroup="9" dimension="9"/>
-    <map measureGroup="10" dimension="10"/>
-    <map measureGroup="11" dimension="0"/>
-    <map measureGroup="11" dimension="1"/>
-    <map measureGroup="11" dimension="3"/>
-    <map measureGroup="11" dimension="4"/>
-    <map measureGroup="11" dimension="5"/>
-    <map measureGroup="11" dimension="6"/>
-    <map measureGroup="11" dimension="7"/>
-    <map measureGroup="11" dimension="8"/>
-    <map measureGroup="11" dimension="9"/>
-    <map measureGroup="11" dimension="11"/>
-    <map measureGroup="11" dimension="12"/>
-    <map measureGroup="11" dimension="13"/>
-    <map measureGroup="11" dimension="14"/>
-    <map measureGroup="11" dimension="15"/>
-    <map measureGroup="11" dimension="16"/>
-    <map measureGroup="11" dimension="18"/>
-    <map measureGroup="11" dimension="19"/>
-    <map measureGroup="11" dimension="20"/>
-    <map measureGroup="11" dimension="21"/>
-    <map measureGroup="11" dimension="22"/>
-    <map measureGroup="11" dimension="23"/>
-    <map measureGroup="11" dimension="24"/>
-    <map measureGroup="11" dimension="25"/>
-    <map measureGroup="11" dimension="26"/>
-    <map measureGroup="11" dimension="28"/>
-    <map measureGroup="12" dimension="0"/>
-    <map measureGroup="12" dimension="1"/>
-    <map measureGroup="12" dimension="3"/>
-    <map measureGroup="12" dimension="4"/>
-    <map measureGroup="12" dimension="5"/>
-    <map measureGroup="12" dimension="6"/>
-    <map measureGroup="12" dimension="7"/>
-    <map measureGroup="12" dimension="8"/>
-    <map measureGroup="12" dimension="9"/>
-    <map measureGroup="12" dimension="11"/>
-    <map measureGroup="12" dimension="12"/>
-    <map measureGroup="12" dimension="13"/>
-    <map measureGroup="12" dimension="14"/>
-    <map measureGroup="12" dimension="15"/>
-    <map measureGroup="12" dimension="16"/>
-    <map measureGroup="12" dimension="18"/>
-    <map measureGroup="12" dimension="19"/>
-    <map measureGroup="12" dimension="20"/>
-    <map measureGroup="12" dimension="21"/>
-    <map measureGroup="12" dimension="22"/>
-    <map measureGroup="12" dimension="23"/>
-    <map measureGroup="12" dimension="24"/>
-    <map measureGroup="12" dimension="25"/>
-    <map measureGroup="12" dimension="26"/>
-    <map measureGroup="12" dimension="28"/>
-    <map measureGroup="13" dimension="13"/>
-    <map measureGroup="14" dimension="13"/>
-    <map measureGroup="15" dimension="14"/>
-    <map measureGroup="16" dimension="15"/>
-    <map measureGroup="20" dimension="0"/>
-    <map measureGroup="20" dimension="1"/>
-    <map measureGroup="20" dimension="3"/>
-    <map measureGroup="20" dimension="4"/>
-    <map measureGroup="20" dimension="5"/>
-    <map measureGroup="20" dimension="6"/>
-    <map measureGroup="20" dimension="7"/>
-    <map measureGroup="20" dimension="8"/>
-    <map measureGroup="20" dimension="9"/>
-    <map measureGroup="20" dimension="11"/>
-    <map measureGroup="20" dimension="12"/>
-    <map measureGroup="20" dimension="13"/>
-    <map measureGroup="20" dimension="14"/>
-    <map measureGroup="20" dimension="15"/>
-    <map measureGroup="20" dimension="16"/>
-    <map measureGroup="20" dimension="18"/>
-    <map measureGroup="20" dimension="19"/>
-    <map measureGroup="20" dimension="20"/>
-    <map measureGroup="20" dimension="21"/>
-    <map measureGroup="20" dimension="22"/>
-    <map measureGroup="20" dimension="23"/>
-    <map measureGroup="20" dimension="24"/>
-    <map measureGroup="20" dimension="25"/>
-    <map measureGroup="20" dimension="26"/>
-    <map measureGroup="20" dimension="28"/>
-    <map measureGroup="21" dimension="0"/>
-    <map measureGroup="21" dimension="1"/>
-    <map measureGroup="21" dimension="3"/>
-    <map measureGroup="21" dimension="4"/>
-    <map measureGroup="21" dimension="5"/>
-    <map measureGroup="21" dimension="6"/>
-    <map measureGroup="21" dimension="7"/>
-    <map measureGroup="21" dimension="8"/>
-    <map measureGroup="21" dimension="9"/>
-    <map measureGroup="21" dimension="11"/>
-    <map measureGroup="21" dimension="12"/>
-    <map measureGroup="21" dimension="13"/>
-    <map measureGroup="21" dimension="14"/>
-    <map measureGroup="21" dimension="15"/>
-    <map measureGroup="21" dimension="16"/>
-    <map measureGroup="21" dimension="18"/>
-    <map measureGroup="21" dimension="19"/>
-    <map measureGroup="21" dimension="20"/>
-    <map measureGroup="21" dimension="21"/>
-    <map measureGroup="21" dimension="22"/>
-    <map measureGroup="21" dimension="23"/>
-    <map measureGroup="21" dimension="24"/>
-    <map measureGroup="21" dimension="25"/>
-    <map measureGroup="21" dimension="26"/>
-    <map measureGroup="21" dimension="28"/>
-    <map measureGroup="22" dimension="19"/>
-    <map measureGroup="23" dimension="0"/>
-    <map measureGroup="23" dimension="1"/>
-    <map measureGroup="23" dimension="3"/>
-    <map measureGroup="23" dimension="4"/>
-    <map measureGroup="23" dimension="5"/>
-    <map measureGroup="23" dimension="6"/>
-    <map measureGroup="23" dimension="7"/>
-    <map measureGroup="23" dimension="8"/>
-    <map measureGroup="23" dimension="9"/>
-    <map measureGroup="23" dimension="11"/>
-    <map measureGroup="23" dimension="12"/>
-    <map measureGroup="23" dimension="13"/>
-    <map measureGroup="23" dimension="14"/>
-    <map measureGroup="23" dimension="15"/>
-    <map measureGroup="23" dimension="16"/>
-    <map measureGroup="23" dimension="18"/>
-    <map measureGroup="23" dimension="19"/>
-    <map measureGroup="23" dimension="20"/>
-    <map measureGroup="23" dimension="21"/>
-    <map measureGroup="23" dimension="22"/>
-    <map measureGroup="23" dimension="23"/>
-    <map measureGroup="23" dimension="24"/>
-    <map measureGroup="23" dimension="25"/>
-    <map measureGroup="23" dimension="26"/>
-    <map measureGroup="23" dimension="28"/>
-    <map measureGroup="24" dimension="21"/>
-    <map measureGroup="25" dimension="22"/>
-    <map measureGroup="26" dimension="0"/>
-    <map measureGroup="26" dimension="1"/>
-    <map measureGroup="26" dimension="3"/>
-    <map measureGroup="26" dimension="4"/>
-    <map measureGroup="26" dimension="5"/>
-    <map measureGroup="26" dimension="6"/>
-    <map measureGroup="26" dimension="7"/>
-    <map measureGroup="26" dimension="8"/>
-    <map measureGroup="26" dimension="9"/>
-    <map measureGroup="26" dimension="11"/>
-    <map measureGroup="26" dimension="12"/>
-    <map measureGroup="26" dimension="13"/>
-    <map measureGroup="26" dimension="14"/>
-    <map measureGroup="26" dimension="15"/>
-    <map measureGroup="26" dimension="16"/>
-    <map measureGroup="26" dimension="18"/>
-    <map measureGroup="26" dimension="19"/>
-    <map measureGroup="26" dimension="20"/>
-    <map measureGroup="26" dimension="21"/>
-    <map measureGroup="26" dimension="22"/>
-    <map measureGroup="26" dimension="23"/>
-    <map measureGroup="26" dimension="24"/>
-    <map measureGroup="26" dimension="25"/>
-    <map measureGroup="26" dimension="26"/>
-    <map measureGroup="26" dimension="28"/>
-    <map measureGroup="27" dimension="0"/>
-    <map measureGroup="27" dimension="1"/>
-    <map measureGroup="27" dimension="3"/>
-    <map measureGroup="27" dimension="4"/>
-    <map measureGroup="27" dimension="5"/>
-    <map measureGroup="27" dimension="6"/>
-    <map measureGroup="27" dimension="7"/>
-    <map measureGroup="27" dimension="8"/>
-    <map measureGroup="27" dimension="9"/>
-    <map measureGroup="27" dimension="11"/>
-    <map measureGroup="27" dimension="12"/>
-    <map measureGroup="27" dimension="13"/>
-    <map measureGroup="27" dimension="14"/>
-    <map measureGroup="27" dimension="15"/>
-    <map measureGroup="27" dimension="16"/>
-    <map measureGroup="27" dimension="18"/>
-    <map measureGroup="27" dimension="19"/>
-    <map measureGroup="27" dimension="20"/>
-    <map measureGroup="27" dimension="21"/>
-    <map measureGroup="27" dimension="22"/>
-    <map measureGroup="27" dimension="23"/>
-    <map measureGroup="27" dimension="24"/>
-    <map measureGroup="27" dimension="25"/>
-    <map measureGroup="27" dimension="26"/>
-    <map measureGroup="27" dimension="28"/>
-    <map measureGroup="28" dimension="0"/>
-    <map measureGroup="28" dimension="1"/>
-    <map measureGroup="28" dimension="3"/>
-    <map measureGroup="28" dimension="4"/>
-    <map measureGroup="28" dimension="5"/>
-    <map measureGroup="28" dimension="6"/>
-    <map measureGroup="28" dimension="7"/>
-    <map measureGroup="28" dimension="8"/>
-    <map measureGroup="28" dimension="9"/>
-    <map measureGroup="28" dimension="11"/>
-    <map measureGroup="28" dimension="12"/>
-    <map measureGroup="28" dimension="13"/>
-    <map measureGroup="28" dimension="14"/>
-    <map measureGroup="28" dimension="15"/>
-    <map measureGroup="28" dimension="16"/>
-    <map measureGroup="28" dimension="18"/>
-    <map measureGroup="28" dimension="19"/>
-    <map measureGroup="28" dimension="20"/>
-    <map measureGroup="28" dimension="21"/>
-    <map measureGroup="28" dimension="22"/>
-    <map measureGroup="28" dimension="23"/>
-    <map measureGroup="28" dimension="24"/>
-    <map measureGroup="28" dimension="25"/>
-    <map measureGroup="28" dimension="26"/>
-    <map measureGroup="28" dimension="28"/>
-    <map measureGroup="29" dimension="0"/>
-    <map measureGroup="29" dimension="1"/>
-    <map measureGroup="29" dimension="3"/>
-    <map measureGroup="29" dimension="4"/>
-    <map measureGroup="29" dimension="5"/>
-    <map measureGroup="29" dimension="6"/>
-    <map measureGroup="29" dimension="7"/>
-    <map measureGroup="29" dimension="8"/>
-    <map measureGroup="29" dimension="9"/>
-    <map measureGroup="29" dimension="11"/>
-    <map measureGroup="29" dimension="12"/>
-    <map measureGroup="29" dimension="13"/>
-    <map measureGroup="29" dimension="14"/>
-    <map measureGroup="29" dimension="15"/>
-    <map measureGroup="29" dimension="16"/>
-    <map measureGroup="29" dimension="18"/>
-    <map measureGroup="29" dimension="19"/>
-    <map measureGroup="29" dimension="20"/>
-    <map measureGroup="29" dimension="21"/>
-    <map measureGroup="29" dimension="22"/>
-    <map measureGroup="29" dimension="23"/>
-    <map measureGroup="29" dimension="24"/>
-    <map measureGroup="29" dimension="25"/>
-    <map measureGroup="29" dimension="26"/>
-    <map measureGroup="29" dimension="28"/>
-    <map measureGroup="30" dimension="0"/>
-    <map measureGroup="30" dimension="1"/>
-    <map measureGroup="30" dimension="3"/>
-    <map measureGroup="30" dimension="4"/>
-    <map measureGroup="30" dimension="5"/>
-    <map measureGroup="30" dimension="6"/>
-    <map measureGroup="30" dimension="7"/>
-    <map measureGroup="30" dimension="8"/>
-    <map measureGroup="30" dimension="9"/>
-    <map measureGroup="30" dimension="11"/>
-    <map measureGroup="30" dimension="12"/>
-    <map measureGroup="30" dimension="13"/>
-    <map measureGroup="30" dimension="14"/>
-    <map measureGroup="30" dimension="15"/>
-    <map measureGroup="30" dimension="16"/>
-    <map measureGroup="30" dimension="18"/>
-    <map measureGroup="30" dimension="19"/>
-    <map measureGroup="30" dimension="20"/>
-    <map measureGroup="30" dimension="21"/>
-    <map measureGroup="30" dimension="22"/>
-    <map measureGroup="30" dimension="23"/>
-    <map measureGroup="30" dimension="24"/>
-    <map measureGroup="30" dimension="25"/>
-    <map measureGroup="30" dimension="26"/>
-    <map measureGroup="30" dimension="27"/>
-    <map measureGroup="30" dimension="28"/>
-    <map measureGroup="31" dimension="0"/>
-    <map measureGroup="31" dimension="1"/>
-    <map measureGroup="31" dimension="3"/>
-    <map measureGroup="31" dimension="4"/>
-    <map measureGroup="31" dimension="5"/>
-    <map measureGroup="31" dimension="6"/>
-    <map measureGroup="31" dimension="7"/>
-    <map measureGroup="31" dimension="8"/>
-    <map measureGroup="31" dimension="9"/>
-    <map measureGroup="31" dimension="11"/>
-    <map measureGroup="31" dimension="12"/>
-    <map measureGroup="31" dimension="13"/>
-    <map measureGroup="31" dimension="14"/>
-    <map measureGroup="31" dimension="15"/>
-    <map measureGroup="31" dimension="16"/>
-    <map measureGroup="31" dimension="18"/>
-    <map measureGroup="31" dimension="19"/>
-    <map measureGroup="31" dimension="20"/>
-    <map measureGroup="31" dimension="21"/>
-    <map measureGroup="31" dimension="22"/>
-    <map measureGroup="31" dimension="23"/>
-    <map measureGroup="31" dimension="24"/>
-    <map measureGroup="31" dimension="25"/>
-    <map measureGroup="31" dimension="26"/>
-    <map measureGroup="31" dimension="28"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Rafael.M  S.I T.I" refreshedDate="45239.407566203707" backgroundQuery="1" createdVersion="6" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Rafael.M  S.I T.I" refreshedDate="45239.566479398149" backgroundQuery="1" createdVersion="6" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="14">
     <cacheField name="[Vendas].[Data].[Data]" caption="Data" numFmtId="0" hierarchy="179" level="1">
@@ -2315,21 +1143,21 @@
     <cacheHierarchy uniqueName="[Clientes].[Chave Região]" caption="Chave Região" attribute="1" defaultMemberUniqueName="[Clientes].[Chave Região].[All]" allUniqueName="[Clientes].[Chave Região].[All]" dimensionUniqueName="[Clientes]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Clientes].[Chave Segmento]" caption="Chave Segmento" attribute="1" defaultMemberUniqueName="[Clientes].[Chave Segmento].[All]" allUniqueName="[Clientes].[Chave Segmento].[All]" dimensionUniqueName="[Clientes]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Clientes].[Cliente - Situação]" caption="Cliente - Situação" attribute="1" defaultMemberUniqueName="[Clientes].[Cliente - Situação].[All]" allUniqueName="[Clientes].[Cliente - Situação].[All]" dimensionUniqueName="[Clientes]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Clientes].[Cliente Completo]" caption="Cliente Completo" attribute="1" defaultMemberUniqueName="[Clientes].[Cliente Completo].[All]" allUniqueName="[Clientes].[Cliente Completo].[All]" dimensionUniqueName="[Clientes]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Clientes].[Cliente Completo]" caption="Cliente Completo" attribute="1" defaultMemberUniqueName="[Clientes].[Cliente Completo].[All]" allUniqueName="[Clientes].[Cliente Completo].[All]" dimensionUniqueName="[Clientes]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Clientes].[Clientes]" caption="Clientes" attribute="1" defaultMemberUniqueName="[Clientes].[Clientes].[All]" allUniqueName="[Clientes].[Clientes].[All]" dimensionUniqueName="[Clientes]" displayFolder="" count="2" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
         <fieldUsage x="13"/>
       </fieldsUsage>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Clientes].[Código Cliente]" caption="Código Cliente" attribute="1" defaultMemberUniqueName="[Clientes].[Código Cliente].[All]" allUniqueName="[Clientes].[Código Cliente].[All]" dimensionUniqueName="[Clientes]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Clientes].[Código Cliente]" caption="Código Cliente" attribute="1" defaultMemberUniqueName="[Clientes].[Código Cliente].[All]" allUniqueName="[Clientes].[Código Cliente].[All]" dimensionUniqueName="[Clientes]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Clientes].[Código Empresa]" caption="Código Empresa" attribute="1" defaultMemberUniqueName="[Clientes].[Código Empresa].[All]" allUniqueName="[Clientes].[Código Empresa].[All]" dimensionUniqueName="[Clientes]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Clientes].[CPF ou CNPJ]" caption="CPF ou CNPJ" attribute="1" defaultMemberUniqueName="[Clientes].[CPF ou CNPJ].[All]" allUniqueName="[Clientes].[CPF ou CNPJ].[All]" dimensionUniqueName="[Clientes]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Clientes].[Localização]" caption="Localização" attribute="1" defaultMemberUniqueName="[Clientes].[Localização].[All]" allUniqueName="[Clientes].[Localização].[All]" dimensionUniqueName="[Clientes]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Clientes].[Qtd. Clientes]" caption="Qtd. Clientes" attribute="1" defaultMemberUniqueName="[Clientes].[Qtd. Clientes].[All]" allUniqueName="[Clientes].[Qtd. Clientes].[All]" dimensionUniqueName="[Clientes]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Condição de Pagamento].[Chave]" caption="Chave" attribute="1" defaultMemberUniqueName="[Condição de Pagamento].[Chave].[All]" allUniqueName="[Condição de Pagamento].[Chave].[All]" dimensionUniqueName="[Condição de Pagamento]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Condição de Pagamento].[Condição de Pagamento]" caption="Condição de Pagamento" attribute="1" defaultMemberUniqueName="[Condição de Pagamento].[Condição de Pagamento].[All]" allUniqueName="[Condição de Pagamento].[Condição de Pagamento].[All]" dimensionUniqueName="[Condição de Pagamento]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[DateTableTemplate_1c5cf662-8a40-40c2-896a-55d3c9a1d239].[Hierarquia de Datas]" caption="Hierarquia de Datas" defaultMemberUniqueName="[DateTableTemplate_1c5cf662-8a40-40c2-896a-55d3c9a1d239].[Hierarquia de Datas].[All]" allUniqueName="[DateTableTemplate_1c5cf662-8a40-40c2-896a-55d3c9a1d239].[Hierarquia de Datas].[All]" dimensionUniqueName="[DateTableTemplate_1c5cf662-8a40-40c2-896a-55d3c9a1d239]" displayFolder="" count="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DateTableTemplate_1c5cf662-8a40-40c2-896a-55d3c9a1d239].[Hierarquia de Datas]" caption="Hierarquia de Datas" defaultMemberUniqueName="[DateTableTemplate_1c5cf662-8a40-40c2-896a-55d3c9a1d239].[Hierarquia de Datas].[All]" allUniqueName="[DateTableTemplate_1c5cf662-8a40-40c2-896a-55d3c9a1d239].[Hierarquia de Datas].[All]" dimensionUniqueName="[DateTableTemplate_1c5cf662-8a40-40c2-896a-55d3c9a1d239]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Divisões de Produtos].[Chave Divisão]" caption="Chave Divisão" attribute="1" defaultMemberUniqueName="[Divisões de Produtos].[Chave Divisão].[All]" allUniqueName="[Divisões de Produtos].[Chave Divisão].[All]" dimensionUniqueName="[Divisões de Produtos]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Divisões de Produtos].[CHAVE_AGECOM]" caption="CHAVE_AGECOM" attribute="1" defaultMemberUniqueName="[Divisões de Produtos].[CHAVE_AGECOM].[All]" allUniqueName="[Divisões de Produtos].[CHAVE_AGECOM].[All]" dimensionUniqueName="[Divisões de Produtos]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Divisões de Produtos].[CHAVE_PAIDIV]" caption="CHAVE_PAIDIV" attribute="1" defaultMemberUniqueName="[Divisões de Produtos].[CHAVE_PAIDIV].[All]" allUniqueName="[Divisões de Produtos].[CHAVE_PAIDIV].[All]" dimensionUniqueName="[Divisões de Produtos]" displayFolder="" count="0" unbalanced="0"/>
@@ -3063,7 +1891,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="148" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="7" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A3:M120" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
@@ -4156,723 +2984,6 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1A62206E-8DB2-43BA-95DB-623569B9E4B3}" name="Tabela Dinâmica1" cacheId="34" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A1:C5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="217">
-        <item s="1" x="0"/>
-        <item s="1" x="1"/>
-        <item s="1" x="2"/>
-        <item s="1" x="3"/>
-        <item s="1" x="4"/>
-        <item s="1" x="5"/>
-        <item s="1" x="6"/>
-        <item s="1" x="7"/>
-        <item s="1" x="8"/>
-        <item s="1" x="9"/>
-        <item s="1" x="10"/>
-        <item s="1" x="11"/>
-        <item s="1" x="12"/>
-        <item s="1" x="13"/>
-        <item s="1" x="14"/>
-        <item s="1" x="15"/>
-        <item s="1" x="16"/>
-        <item s="1" x="17"/>
-        <item s="1" x="18"/>
-        <item s="1" x="19"/>
-        <item s="1" x="20"/>
-        <item s="1" x="21"/>
-        <item s="1" x="22"/>
-        <item s="1" x="23"/>
-        <item s="1" x="24"/>
-        <item s="1" x="25"/>
-        <item s="1" x="26"/>
-        <item s="1" x="27"/>
-        <item s="1" x="28"/>
-        <item s="1" x="29"/>
-        <item s="1" x="30"/>
-        <item s="1" x="31"/>
-        <item s="1" x="32"/>
-        <item s="1" x="33"/>
-        <item s="1" x="34"/>
-        <item s="1" x="35"/>
-        <item s="1" x="36"/>
-        <item s="1" x="37"/>
-        <item s="1" x="38"/>
-        <item s="1" x="39"/>
-        <item s="1" x="40"/>
-        <item s="1" x="41"/>
-        <item s="1" x="42"/>
-        <item s="1" x="43"/>
-        <item s="1" x="44"/>
-        <item s="1" x="45"/>
-        <item s="1" x="46"/>
-        <item s="1" x="47"/>
-        <item s="1" x="48"/>
-        <item s="1" x="49"/>
-        <item s="1" x="50"/>
-        <item s="1" x="51"/>
-        <item s="1" x="52"/>
-        <item s="1" x="53"/>
-        <item s="1" x="54"/>
-        <item s="1" x="55"/>
-        <item s="1" x="56"/>
-        <item s="1" x="57"/>
-        <item s="1" x="58"/>
-        <item s="1" x="59"/>
-        <item s="1" x="60"/>
-        <item s="1" x="61"/>
-        <item s="1" x="62"/>
-        <item s="1" x="63"/>
-        <item s="1" x="64"/>
-        <item s="1" x="65"/>
-        <item s="1" x="66"/>
-        <item s="1" x="67"/>
-        <item s="1" x="68"/>
-        <item s="1" x="69"/>
-        <item s="1" x="70"/>
-        <item s="1" x="71"/>
-        <item s="1" x="72"/>
-        <item s="1" x="73"/>
-        <item s="1" x="74"/>
-        <item s="1" x="75"/>
-        <item s="1" x="76"/>
-        <item s="1" x="77"/>
-        <item s="1" x="78"/>
-        <item s="1" x="79"/>
-        <item s="1" x="80"/>
-        <item s="1" x="81"/>
-        <item s="1" x="82"/>
-        <item s="1" x="83"/>
-        <item s="1" x="84"/>
-        <item s="1" x="85"/>
-        <item s="1" x="86"/>
-        <item s="1" x="87"/>
-        <item s="1" x="88"/>
-        <item s="1" x="89"/>
-        <item s="1" x="90"/>
-        <item s="1" x="91"/>
-        <item s="1" x="92"/>
-        <item s="1" x="93"/>
-        <item s="1" x="94"/>
-        <item s="1" x="95"/>
-        <item s="1" x="96"/>
-        <item s="1" x="97"/>
-        <item s="1" x="98"/>
-        <item s="1" x="99"/>
-        <item s="1" x="100"/>
-        <item s="1" x="101"/>
-        <item s="1" x="102"/>
-        <item s="1" x="103"/>
-        <item s="1" x="104"/>
-        <item s="1" x="105"/>
-        <item s="1" x="106"/>
-        <item s="1" x="107"/>
-        <item s="1" x="108"/>
-        <item s="1" x="109"/>
-        <item s="1" x="110"/>
-        <item s="1" x="111"/>
-        <item s="1" x="112"/>
-        <item s="1" x="113"/>
-        <item s="1" x="114"/>
-        <item s="1" x="115"/>
-        <item s="1" x="116"/>
-        <item s="1" x="117"/>
-        <item s="1" x="118"/>
-        <item s="1" x="119"/>
-        <item s="1" x="120"/>
-        <item s="1" x="121"/>
-        <item s="1" x="122"/>
-        <item s="1" x="123"/>
-        <item s="1" x="124"/>
-        <item s="1" x="125"/>
-        <item s="1" x="126"/>
-        <item s="1" x="127"/>
-        <item s="1" x="128"/>
-        <item s="1" x="129"/>
-        <item s="1" x="130"/>
-        <item s="1" x="131"/>
-        <item s="1" x="132"/>
-        <item s="1" x="133"/>
-        <item s="1" x="134"/>
-        <item s="1" x="135"/>
-        <item s="1" x="136"/>
-        <item s="1" x="137"/>
-        <item s="1" x="138"/>
-        <item s="1" x="139"/>
-        <item s="1" x="140"/>
-        <item s="1" x="141"/>
-        <item s="1" x="142"/>
-        <item s="1" x="143"/>
-        <item s="1" x="144"/>
-        <item s="1" x="145"/>
-        <item s="1" x="146"/>
-        <item s="1" x="147"/>
-        <item s="1" x="148"/>
-        <item s="1" x="149"/>
-        <item s="1" x="150"/>
-        <item s="1" x="151"/>
-        <item s="1" x="152"/>
-        <item s="1" x="153"/>
-        <item s="1" x="154"/>
-        <item s="1" x="155"/>
-        <item s="1" x="156"/>
-        <item s="1" x="157"/>
-        <item s="1" x="158"/>
-        <item s="1" x="159"/>
-        <item s="1" x="160"/>
-        <item s="1" x="161"/>
-        <item s="1" x="162"/>
-        <item s="1" x="163"/>
-        <item s="1" x="164"/>
-        <item s="1" x="165"/>
-        <item s="1" x="166"/>
-        <item s="1" x="167"/>
-        <item s="1" x="168"/>
-        <item s="1" x="169"/>
-        <item s="1" x="170"/>
-        <item s="1" x="171"/>
-        <item s="1" x="172"/>
-        <item s="1" x="173"/>
-        <item s="1" x="174"/>
-        <item s="1" x="175"/>
-        <item s="1" x="176"/>
-        <item s="1" x="177"/>
-        <item s="1" x="178"/>
-        <item s="1" x="179"/>
-        <item s="1" x="180"/>
-        <item s="1" x="181"/>
-        <item s="1" x="182"/>
-        <item s="1" x="183"/>
-        <item s="1" x="184"/>
-        <item s="1" x="185"/>
-        <item s="1" x="186"/>
-        <item s="1" x="187"/>
-        <item s="1" x="188"/>
-        <item s="1" x="189"/>
-        <item s="1" x="190"/>
-        <item s="1" x="191"/>
-        <item s="1" x="192"/>
-        <item s="1" x="193"/>
-        <item s="1" x="194"/>
-        <item s="1" x="195"/>
-        <item s="1" x="196"/>
-        <item s="1" x="197"/>
-        <item s="1" x="198"/>
-        <item s="1" x="199"/>
-        <item s="1" x="200"/>
-        <item s="1" x="201"/>
-        <item s="1" x="202"/>
-        <item s="1" x="203"/>
-        <item s="1" x="204"/>
-        <item s="1" x="205"/>
-        <item s="1" x="206"/>
-        <item s="1" x="207"/>
-        <item s="1" x="208"/>
-        <item s="1" x="209"/>
-        <item s="1" x="210"/>
-        <item s="1" x="211"/>
-        <item s="1" x="212"/>
-        <item s="1" x="213"/>
-        <item s="1" x="214"/>
-        <item s="1" x="215"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="3">
-        <item s="1" x="0"/>
-        <item s="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="12">
-        <item s="1" x="0"/>
-        <item s="1" x="1"/>
-        <item s="1" x="2"/>
-        <item s="1" x="3"/>
-        <item s="1" x="4"/>
-        <item s="1" x="5"/>
-        <item s="1" x="6"/>
-        <item s="1" x="7"/>
-        <item s="1" x="8"/>
-        <item s="1" x="9"/>
-        <item s="1" x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="11">
-        <item s="1" x="0"/>
-        <item s="1" x="1"/>
-        <item s="1" x="2"/>
-        <item s="1" x="3"/>
-        <item s="1" x="4"/>
-        <item s="1" x="5"/>
-        <item s="1" x="6"/>
-        <item s="1" x="7"/>
-        <item s="1" x="8"/>
-        <item s="1" x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="2">
-        <item s="1" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1"/>
-    <pivotField allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1"/>
-    <pivotField allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="2">
-        <item s="1" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="2">
-        <item s="1" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="2">
-        <item s="1" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="2">
-        <item s="1" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="39">
-        <item s="1" x="0"/>
-        <item s="1" x="1"/>
-        <item s="1" x="2"/>
-        <item s="1" x="3"/>
-        <item s="1" x="4"/>
-        <item s="1" x="5"/>
-        <item s="1" x="6"/>
-        <item s="1" x="7"/>
-        <item s="1" x="8"/>
-        <item s="1" x="9"/>
-        <item s="1" x="10"/>
-        <item s="1" x="11"/>
-        <item s="1" x="12"/>
-        <item s="1" x="13"/>
-        <item s="1" x="14"/>
-        <item s="1" x="15"/>
-        <item s="1" x="16"/>
-        <item s="1" x="17"/>
-        <item s="1" x="18"/>
-        <item s="1" x="19"/>
-        <item s="1" x="20"/>
-        <item s="1" x="21"/>
-        <item s="1" x="22"/>
-        <item s="1" x="23"/>
-        <item s="1" x="24"/>
-        <item s="1" x="25"/>
-        <item s="1" x="26"/>
-        <item s="1" x="27"/>
-        <item s="1" x="28"/>
-        <item s="1" x="29"/>
-        <item s="1" x="30"/>
-        <item s="1" x="31"/>
-        <item s="1" x="32"/>
-        <item s="1" x="33"/>
-        <item s="1" x="34"/>
-        <item s="1" x="35"/>
-        <item s="1" x="36"/>
-        <item s="1" x="37"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="9"/>
-    <field x="11"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="4"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotHierarchies count="280">
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy>
-      <members count="39" level="1">
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name="[Clientes].[Clientes].&amp;[COMPANHIA ZAFFARI COMERCIO E INDUSTRIA - BOURBON]"/>
-      </members>
-    </pivotHierarchy>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy multipleItemSelectionAllowed="1">
-      <members count="1" level="1">
-        <member name="[Divisões de Produtos].[Divisão de Produtos].&amp;[47 - INSTITUCIONAL]"/>
-      </members>
-    </pivotHierarchy>
-    <pivotHierarchy>
-      <members count="1" level="1">
-        <member name="[Divisões de Produtos].[Divisão de Produtos - Código].&amp;[47]"/>
-      </members>
-    </pivotHierarchy>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="2">
-    <rowHierarchyUsage hierarchyUsage="152"/>
-    <rowHierarchyUsage hierarchyUsage="58"/>
-  </rowHierarchiesUsage>
-  <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="166"/>
-  </colHierarchiesUsage>
-  <extLst>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -5172,7 +3283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -5597,7 +3708,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -5635,12 +3746,12 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="5">
         <v>3675.25</v>
@@ -5722,7 +3833,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="5">
         <v>3675.25</v>
@@ -5763,7 +3874,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="5">
         <v>1470.1</v>
@@ -5845,7 +3956,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="5">
         <v>1470.1</v>
@@ -5886,7 +3997,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="5">
         <v>2793.19</v>
@@ -5968,7 +4079,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="5">
         <v>2793.19</v>
@@ -6009,7 +4120,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="5">
         <v>1470.1</v>
@@ -6091,7 +4202,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="5">
         <v>1470.1</v>
@@ -6132,7 +4243,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="5">
         <v>2793.19</v>
@@ -6214,7 +4325,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" s="5">
         <v>2793.19</v>
@@ -6255,7 +4366,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="5">
         <v>1470.1</v>
@@ -6333,7 +4444,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" s="5">
         <v>1470.1</v>
@@ -6372,7 +4483,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="5">
         <v>6615.45</v>
@@ -6454,7 +4565,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B26" s="5">
         <v>6615.45</v>
@@ -6495,7 +4606,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="5">
         <v>1323.09</v>
@@ -6577,7 +4688,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29" s="5">
         <v>1323.09</v>
@@ -6618,7 +4729,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" s="5">
         <v>3234.22</v>
@@ -6700,7 +4811,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B32" s="5">
         <v>3234.22</v>
@@ -6741,7 +4852,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B33" s="5">
         <v>1911.13</v>
@@ -6823,7 +4934,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B35" s="5">
         <v>1911.13</v>
@@ -6864,7 +4975,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B36" s="5">
         <v>4410.3</v>
@@ -6946,7 +5057,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B38" s="5">
         <v>4410.3</v>
@@ -6987,7 +5098,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B39" s="5">
         <v>3969.27</v>
@@ -7069,7 +5180,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B41" s="5">
         <v>3969.27</v>
@@ -7110,7 +5221,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B42" s="5">
         <v>7791.53</v>
@@ -7192,7 +5303,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B44" s="5">
         <v>7791.53</v>
@@ -7233,7 +5344,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B45" s="5">
         <v>2352.16</v>
@@ -7315,7 +5426,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B47" s="5">
         <v>2352.16</v>
@@ -7356,7 +5467,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -7430,7 +5541,7 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -7467,7 +5578,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B51" s="5">
         <v>5439.37</v>
@@ -7549,7 +5660,7 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B53" s="5">
         <v>5439.37</v>
@@ -7590,7 +5701,7 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B54" s="5">
         <v>4410.3</v>
@@ -7672,7 +5783,7 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B56" s="5">
         <v>4410.3</v>
@@ -7713,7 +5824,7 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B57" s="5">
         <v>5586.38</v>
@@ -7795,7 +5906,7 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B59" s="5">
         <v>5586.38</v>
@@ -7836,7 +5947,7 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -7902,7 +6013,7 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -7935,7 +6046,7 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B63" s="5">
         <v>4263.29</v>
@@ -8017,7 +6128,7 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B65" s="5">
         <v>4263.29</v>
@@ -8058,7 +6169,7 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B66" s="5">
         <v>9408.64</v>
@@ -8140,7 +6251,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B68" s="5">
         <v>9408.64</v>
@@ -8181,7 +6292,7 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B69" s="5">
         <v>9849.67</v>
@@ -8263,7 +6374,7 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B71" s="5">
         <v>9849.67</v>
@@ -8304,7 +6415,7 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B72" s="5">
         <v>3087.21</v>
@@ -8386,7 +6497,7 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B74" s="5">
         <v>3087.21</v>
@@ -8427,7 +6538,7 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B75" s="5">
         <v>1764.12</v>
@@ -8509,7 +6620,7 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B77" s="5">
         <v>1764.12</v>
@@ -8550,7 +6661,7 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B78" s="5">
         <v>3822.26</v>
@@ -8632,7 +6743,7 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B80" s="5">
         <v>3822.26</v>
@@ -8673,7 +6784,7 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B81" s="5">
         <v>3675.25</v>
@@ -8755,7 +6866,7 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B83" s="5">
         <v>3675.25</v>
@@ -8796,7 +6907,7 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B84" s="5">
         <v>1470.1</v>
@@ -8878,7 +6989,7 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B86" s="5">
         <v>1470.1</v>
@@ -8919,7 +7030,7 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B87" s="5">
         <v>5586.38</v>
@@ -9001,7 +7112,7 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B89" s="5">
         <v>5586.38</v>
@@ -9042,7 +7153,7 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B90" s="5">
         <v>2940.2</v>
@@ -9124,7 +7235,7 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B92" s="5">
         <v>2940.2</v>
@@ -9165,7 +7276,7 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B93" s="5">
         <v>5292.36</v>
@@ -9247,7 +7358,7 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B95" s="5">
         <v>5292.36</v>
@@ -9288,7 +7399,7 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B96" s="5">
         <v>1911.13</v>
@@ -9370,7 +7481,7 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B98" s="5">
         <v>1911.13</v>
@@ -9411,7 +7522,7 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B99" s="5">
         <v>3528.24</v>
@@ -9493,7 +7604,7 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B101" s="5">
         <v>3528.24</v>
@@ -9534,7 +7645,7 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B102" s="5">
         <v>3087.21</v>
@@ -9616,7 +7727,7 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B104" s="5">
         <v>3087.21</v>
@@ -9657,7 +7768,7 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B105" s="5">
         <v>1029.07</v>
@@ -9739,7 +7850,7 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B107" s="5">
         <v>1029.07</v>
@@ -9780,7 +7891,7 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B108" s="5">
         <v>2499.17</v>
@@ -9862,7 +7973,7 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B110" s="5">
         <v>2499.17</v>
@@ -9903,7 +8014,7 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B111" s="5">
         <v>441.03</v>
@@ -9985,7 +8096,7 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B113" s="5">
         <v>441.03</v>
@@ -10026,7 +8137,7 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B114" s="5">
         <v>1617.11</v>
@@ -10108,7 +8219,7 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B116" s="5">
         <v>1617.11</v>
@@ -10149,7 +8260,7 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B117" s="5">
         <v>3528.24</v>
@@ -10231,7 +8342,7 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B119" s="5">
         <v>3528.24</v>
@@ -10315,77 +8426,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A63AED-B3F3-44F7-8FA3-FF6D51A35D86}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="5">
-        <v>16198493.789999999</v>
-      </c>
-      <c r="C3" s="5">
-        <v>16198493.789999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="5">
-        <v>16198493.789999999</v>
-      </c>
-      <c r="C4" s="5">
-        <v>16198493.789999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5">
-        <v>16198493.789999999</v>
-      </c>
-      <c r="C5" s="5">
-        <v>16198493.789999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>